--- a/istqb.xlsx
+++ b/istqb.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="1364">
   <si>
     <t>覆盖</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -12750,7 +12750,3791 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>模拟题4.4基于经验的测试-2</t>
+    <t>关于探索性测试的论断，下面哪个是正确的？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索性测试无法识别正事测试技术以外的任何其他测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法预先预测完成探索性测试会话所需时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索性测试可以使用黑和技术，但不能使用白盒技术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试过类似应用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>App</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和技术方面更有经验的测试人员，相比经验更少的测试人员，其会在探索性测试中表现得更好</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于规格说明的测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您正在测试一个手机应用app，它允许客户访问和管理他们的银行账户。您正在运行一个测试套件，该套件根据从有关该主题的热门书籍中派生出来的用户界面最佳实践的通用列表，来评估每个类似APP屏幕和屏幕上的每个字段的吸引力、易用性和可访问性。以下哪个选项是您所使用的测试技术的最佳分类？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下关于探索性测试的描述正确的是？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在探索性测试中，针对预定义好的测试，在测试执行过程中动态地执行、记录和评估</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索性测试基于模型的测试策略密切相关，并且可以结合其他黑盒技术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索性测试总是使用基于会话的测试来确保测试被记录下来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在探索性测试中，测试结果用于了解更多关于被测软件的信息，并为可能需要更多测试的领域创建额外的测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下关于基于检查表的测试的描述正确的是？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查表用于确保实际的测试和计划没有任何偏差</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查表可用于支持功能测试，但不支持非功能测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在分析过程中，测试人员可以选择一个现有的检查表，在不修改的情况下使用它，或者创建一个新的检查表；不允许修改现有的检查表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在基于检查表的测试中，测试人员设计、实施和执行测试，以涵盖检查表中的测试条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下属于测试员任务的是？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过考虑背景（上下文）并理解测试目标和风险来规划测试活动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据手机的信息准备并提交测试进度报告和测试总结报告</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引入适当的度量来测量测试进度并评估测试和产品的质量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>识别并记录测试条件，并捕获测试用例、测试条件和测试依据之间的可追溯性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下哪项最可能是测试经理执行的任务？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于测试中收集到的信息编写测试总结报告</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审他人开发的测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立详细的测试执行进度表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析、评审和评估需求、规格说明和模型的可测试性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下面哪个任务应该是测试工程师的主要职责？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制订测试计划与测试过程监控</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择合适项目的测试工具和确定所使用的测试技术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建测试环境与跟踪自己测试执行进度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写测试报告与结果分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下选项哪一个不是独立测试的优点？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立测试人员没有偏见，更客观</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立的测试人员可以找到其他的开发人员不容易发现的缺陷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当独立测试人员检查开发人员的工作的时候，他们可以有更好的质量责任感</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立的测试人员可以验证系统开发过程中所做的假设</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下关于独立测试的描述，独立性从高到低的排列，哪个是最合适的？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发人员测试自己开发的代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试外包或者组织之外的测试团队</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织内独立的测试团队</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发团队内的测试人员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4-2-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4-3-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-2-4-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3-4-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于哪项属于独立测试的优点？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与开发团队隔离，导致缺乏协作，向开发团队提供反馈的延迟，或与开发团队的对抗关系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发人员可能会失去对质量的责任感</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立测试员可能被视为瓶颈或因延迟发布而受到指责</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立测试员可以在系统的说明和实施过程中验证、质疑或反驳干系人的假设</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在遵循敏捷方法的项目中，您发现开发人员对验收准则的解释与产品负责人PO的解释之间存在差异，这是您在用户故事优化会中提出的。这种情况体现了以下哪种独立性的好处？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>识别不同类型的失效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对质量负主要责任</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽早消除缺陷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战利益相关者的假设</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下哪两个能够影响测试计划且是测试计划的一部分？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算的限制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>失效率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>某项目开发一种“智能”加热恒温器。恒温器的控制算法建模为matlab/simulink模型，并在联网的服务器上运行，恒温器使用服务器的规格触发加热阀。测试经理在测试计划中定义了以下测试策略/方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整个系统的验收测试以探索性测试的方式执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器上控制算法在实现的时候通过持续集成进行测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒温器的功能测试利用基于风险的测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据以通过互联网的通讯的安全性测试是和外部安全安全专家一起执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试经理在测试计划中实施了哪四种策略/方法？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法型、分析型、反应型和回归避免型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析型、基于模型、指导型和反应型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于模型、方法型、分析型和指导型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归避免型、指导型、反应型和方法型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下哪个选项只包括了典型的测试出口准则？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可靠性度量、测试覆盖率、测试人员的独立程度，以及产品完整性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可靠性度量、测试覆盖率、测试成本、测试环境可用性、上市时间、以及产品完整性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上市时间、遗留缺陷、测试质量、可测试的用例的可用性、测试覆盖率，以及测试成本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可靠性度量、测试覆盖率、测试技术</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、关于修复错误的进度和状态，以及剩余风险</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据以下入口和出口准则的例子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>96%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计划测试已经被执行，剩下的测试现在不在工作范围</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易的性能测试环境已经完成了涉及、搭建和验证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前状态是没有突出的关键缺陷，有俩个高优先级的缺陷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动驾驶的设计规范已经完成了评审和修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>税率计算组件已经通过了单元测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下对于这些例子按照入口和出口准则的分类正确的是？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入口准则-5，6；出口准则-1，2，3，4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入口准则-2，3，6；出口准则-1，4，5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入口准则-1，3；出口准则-2，4，5，6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入口准则-3，5，6；出口准则-1，2，4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最初的测试预算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$30000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以及后来追加的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$7000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已经用完了</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下哪条要求，一般不用于集成测试入口准则的？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试环境已经准备就绪并可用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试环境中的测试工具已经准备就绪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据可用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成测试执行结束</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为测试经理，你负责测试以下需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>流程异常</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同步</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>批准</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>问题解决</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>财务数据</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图形数据</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户概要的变更</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注意：逻辑的需求依赖关系（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A-B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，意味着</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>依赖于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据需求依赖的关系，以下哪个选项的测试执行进度表是正确的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1&gt;R3&gt;R4&gt;R7&gt;R2&gt;R5&gt;R6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1&gt;R3&gt;R2&gt;R4&gt;R7&gt;R5&gt;R6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1&gt;R3&gt;R2&gt;R5&gt;R6&gt;R4&gt;R7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1&gt;R2&gt;R5&gt;R6&gt;R3&gt;R4&gt;R7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据以下测试咏柳的优先级和依赖关系：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>优先级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">                   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技术上依赖于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>逻辑上依赖于</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高                    TC4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低                                       TC2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中                    TC5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下哪个测试执行进度最好的考虑了优先级以及技术和逻辑的依赖关系？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC1 - TC3 - TC4 - TC6 - TC2 - TC5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC4 - TC3 - TC1 - TC2 - TC5 - TC6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC4 - TC1 - TC3 - TC5 - TC6 - TC2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC4 - TC2 - TC5 - TC1 - TC3 - TC6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">                                                     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      TC4</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是某手机移动终端在线支付APP系统的测试经理，目前处于测试估算阶段，你所在的公司已经通过了CMMI4的评估，因此估算的一些度量数据来自公司的历史数据，基于每个测试用例的工作量进行估算。针对该系统，估算得到的测试用例数目是：重要的测试用例：400个；不重要的测试用例：600个；公司基于单个测试用例的度量数据如下：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司度量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重要的测试用例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">                  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不重要的测试用例</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试分析与设计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试实现与执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">                                       1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小时</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2800</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小时</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小时</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小时</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小时</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请问完成全部测试用例的测试分析、设计、实现与执行的工作量是多少？（400*（2+2）+600*（1+1））</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下是基于度量的测试估算方法的特征？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前类似项目使用的预算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在和测试经理面试中收集到的所有经验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试团队同意的对测试自动化工作量的估算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从业务专家手机来的计算的平均值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下关于估算技术描述错误的是？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃尽图是基于专家的方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划扑克是基于专家的方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺陷移除模型是基于度量的方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽带德尔菲估算技术是基于专家的方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下关于估算技术描述正确的是？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于度量的方法中，估算是基于项目的测试度量，所以估算只有在测试开始时候可用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于专家的方法中，由客户确定的一群专家用户推荐必须得测试预算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于专家的方法中，负责不同测试活动的测试经理预测预期的测试工作量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于度量的方法中，记录的几个过去项目的测试成本的平均值被用于作为测试预算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.1.001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.1.003）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.1.004）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.1.005）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>覆盖的测试条件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">               </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>优先级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">                   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>逻辑依赖</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择食物类型              3                  无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择餐馆                  2               （0.1.001）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给餐馆打电话              1               （0.1.002）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下哪项是同时考虑了优先级和依赖关系的可能的测试执行计划？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.1.001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.1.002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.1.003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.1.005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.1.004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预定座位                  3               （0.1.002）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.1.003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.1.004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.1.002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.1.001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.1.002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.1.001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.1.002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.1.004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.1.005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.1.003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您正在测试一个移动应用程序，它允许用户根据他们想吃的食物类型找到附近的餐馆。考虑以下测试用例、优先级（较小的数字优先级高）和依赖关系：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得位置                  1               （0.1.002）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.1.002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.1.001</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.1.002</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.1.004</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.1.003</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.1.005</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下哪项测试度量经常同时用于监控测试准备和测试执行？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缺陷发现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修复率</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试环境</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>准备</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>估算的发现下一个缺陷的成本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您正在为新的移动银行应用程序计划测试工作量。作为估算的一部分，您首先要与建议的测试人员和项目中的其他人员会面。这个团队相互配合的很好，已经在类似的项目上工作过。为了经验得出的估算值，您可以参考一些类似项目的测试工作量和成本的行业平均值，这些数据由以为声誉良好的顾问发布。
+以下哪项准确地描述了您的估算方法？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时采用了基于专家和基于度量的方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要是基于专家的方法，并辅以基于度量的方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要是基于度量的方法，并辅以基于专家的方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要是计划扑克，并根据燃尽图中的速度进行检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您正在定义执行产品风险分析的过程，作为敏捷项目每次迭代的一部分。该过程应该记录在测试计划中的哪个位置最合适？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试度量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试对象的配置管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下关于测试计划的目的和内容的陈述中，哪一项是错误的？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目启动前，必须完成主测试计划的内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试计划是一项持续的活动，测试计划的内容可能随着项目的近战而改变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于不同的类型，可能有单独的测试计划</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将测试活动集成到软件开发生命周期活动中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下哪俩个能够影响测试计划且是测试计划的一部分？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可靠性度量、测试覆盖率、测试成本、关于修复错误的进度和状态，以及剩余风险</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可靠性度量、测试覆盖率、测试成本、测试环境可用性、上市时间，以及产品完整性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经运行了一组测试，并对影响测试优先级的相关模块进行了一些更改。
+最初的优先顺序如下：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在初始测试之后，完成了一些补救工作，并且这项工作改变了测试用例之间的依赖性，如下所示：
+测试用例3现在依赖于测试用例5
+测试用例2现在依赖于测试用例3
+测试执行计划中的测试顺序应该是什么？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于度量的估计方法和基于专家的方法之间的关键区别是什么？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于度量的方法使用数学方程计算总工作量，而基于专家的方法使用以前的项目数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于度量的方法使用以前的项目的数据，而基于专家的方法使用测试人员进行测试的经验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于专家的方法使用测试人员经验，而基于度量的方法使用以前的估计作为指南</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于专家的方法使用专家的经验，而基于度量的方法使用以前类似项目的数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下哪个度量对于测试执行时的监视最有用？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行的测试用例百分比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试执行时涉及的测试人员的平均数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过源代码对需求的覆盖率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建并通过评审的测试用例的百分比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下哪个不属于测试总结报告的内容？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和测试方法的偏差</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据出口准则对实际进度的度量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估测试项的质量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定义通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>失败准则和测试目标</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下不属于测试报告内容的是？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在测试阶段发生了什么？比如达到测试出口准则的日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过肥西相关信息和度量可以对下一步的活动提供建议和做出决策</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对仍然存在的缺陷的评估</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为已定义的不同测试任务分配资源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下关于测试报告描述错误的是？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在测试活动期间准备的测试报告可能被称为测试总结报告，而在测试活动结束时准备的测试报告可能被称为测试进度报告</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与许多干系人还或合规项目相关的复杂项目，需要快速地更新软件，可能更需要详细和严格的报告</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在敏捷开发中，测试进度报告可以包含在任务板、缺陷摘要和燃尽图中，这可以在每日站立会议期间讨论</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了根据项目周裁剪定制的测试报告外，还应该根据报告的受众剪裁定制测试报告</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下面哪个不属于测试控制措施？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于测试监控信息来做决策</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制测试的入口和出口准则</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果一个已识别的风险发生，重新确定测试优先级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据测试环境可用性，改变测试的时间进度表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下关于配置管理的主要作用描述错误的是？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本控制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更可跟踪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个配置项有唯一的标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只管理代码和开发文档，测试文档不需要纳入配置管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有些缺陷已经被修复了，但是在版本发布的时候并没有包含已经修复了的代码
+配置管理中的哪项活动有助于改善这种情况？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新测试用例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本控制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发人员，可能在步骤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中没有进行充分测试</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试人员，可能对步骤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中要测试的内容感到困惑</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发人员，第一步中可能没有正确修复缺陷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您是一个内部银行软件项目的项目经理。为防止返工和过多的“发现/修复/重新测试”这样的循环，一旦在测试实验室中发现缺陷，就采取以下流程解决缺陷：
+1，分配的开发人员发现并修复缺陷，然后创建一个实验的构建
+2，发开任玉环在他的桌面上针对缺陷修复开展同行评审、单元测试和确认测试
+3，测试人员（通常是发现缺陷的人员）在开发环境中对缺陷修复进行确认测试
+4，每天一次，在测试环境中安装包所有已确认的缺陷修复的新版本
+5，步骤3中的测试人员在测试环境中对缺陷修复进行确认测试
+然而，大量的测试人员在开发环境中确认为已修复的缺陷（在步骤3中）在测试环境中以某种方式未能通过确认测试，从而导致返工，您对测试人员肥肠有信息，并且已经排除了步骤3中的错误或遗漏
+一下哪一项最有可能是下一步要检查的流程？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配置管理，可能无法在步骤</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中维护产品的完整性</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下哪项最完整的定义了配置管理如何支持测试的？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确保测试软件和系统组件是唯一标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立和维护组件或系统，测试件及其他们之间相互关系的完整性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确保在测试文档中明确引用所有识别的文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确保所有测试项都是唯一表示、版本控制、变更跟踪并彼此相互关联</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下哪项最好的定义了风险级别？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险级别通过将所有问题的可能性和由此产生的财务影响相加计算得到</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险级别是通过将系统受到微信的可能性乘以威胁发生并导致财务损失的可能性来估算的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险级别由不良事件的概率和该事情的预期影响的组合决定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险级别是系统所有潜在危害的总和乘以该系统所有潜在损失的总和</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下哪项可能是产品风险的例子？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统结构可能无法支持期望的安全性功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发人员可能没有时间修复所有测试团队发现的缺陷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例可能无法圈圈覆盖所有指定的需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能测试环境可能无法在系统交付之前准备好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下哪项最不可能是正确影响测试的产品风险分析的例子？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全缺陷的潜在影响特别高，因此安全性测试优先于其他测试活动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试发现网络模块的质量好于预期，因此将对该区域进行额外的测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户对前一个系统的用户界面有问题，因此计划对替换系统计划了额外的易用性测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载网页所需的时间对于新网站的成果至关重要，因此该项目雇用了性能测试专家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>某数据通信产品提供客户端的ADSL上网业务，其主要有4个功能模块组成，分别是M1\M2\M3和M4表示。
+在测试计划阶段，利益相关者对他们进行了风险的识别和分析，得到的可能性与严重程度分别如下（数字越大，表示可能性越大，严重程度越高）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <r>
+      <t>56%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>48%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>36%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>72%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请问，作为测试人员，在不考虑加权的情况下，你认为哪个模块的风险级别最低？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>某研发团队正在开发一个网上商城。该研发团队采用典型的V模型。在测试计划阶段，利益相关者识别了如下风险，其中哪个最可能是产品风险？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低质量的详细设计和编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初稿的需求规格说明中很多需求没有正确的定义</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发团队认为测试团队的工作没有价值，对提高产品质量的贡献很小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单管理功能没有实现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下属于项目风险的是？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与测试人员进行需求和测试结果沟通方面存在的问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易错的软件交付使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>硬件对个人或公司造成伤害的可能性</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>劣质的软件特征（比如功能性、可靠性、可能性和性能等）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险的等级由以下哪些因素决定？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试环境</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不确定时间发生的可能性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间一旦发生的影响</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试人员的技能水平</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试流程规范性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下哪2个因素可用于确定风险级别？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试和开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态的和反应的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>语句和判定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能性和影响</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请考虑以下移动应用程序开发工作中可能出现的不良结果列表：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告的总数不正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收试验期间验收准则的变更</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户发现软键盘太难与您的应用程序配合使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统在输入搜索字符串对用户输入的响应太慢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试人员不允许在每日站立会议上报告测试结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下哪项将这些结果正确地分类为项目和产品风险？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品风险：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">B\E  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目风险</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A\C\D</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品风险：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A\C\D\E  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目风险</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品风险：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A\C  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目风险</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B\D\E</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品风险：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A\C\D  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目风险</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>B\E</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下面不属于事件报告的主要目的和作用的是哪个？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为开发人员和其他人员提供问题反馈，在需要的时候可以进行识别、隔离和纠正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为测试组长提供一种有效跟踪被测试系统的质量和测试进度的方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高开发人员的编程能力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为测试过程改进提供资料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您正在测试咖啡机的软件新版本。机器可以按四种类别配置不同类型的咖啡，例如：咖啡规格、糖、牛奶和糖浆，标准如下：
+咖啡规格（大、中、小）
+糖（无、1单位、2单位、3单位、4单位）
+牛奶（是、否）
+咖啡糖浆（不含糖浆、焦糖、榛子、香草）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在你正在编写一个包含以下内容的缺陷报告：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简短总结</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险程度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡温度低</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当你选择牛奶咖啡时，准备咖啡的时间太长，饮料的温度太低（低于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>40°C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咖啡的温度应该是标准的（大于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>75°C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上述缺陷报告缺少哪些有价值的信息？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际的测试结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识被测试的咖啡机的数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺陷的状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>改进测试用例的想法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你针对火车订票系统进行测试。根据你运行的测试用例，你发现系统偶尔会报告没有可用的火车票，但是你相信实际上是有的。你已经向开发经理提供了缺陷的摘要以及你正在测试的系统的版本。开发认识到缺陷的紧迫性。现在正在等你提供更多的细节，这样他们可以修复这个缺陷。
+根据以下信息：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缺陷的影响</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>严重</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>程度</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试项的标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试环境的细节</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修复的紧急程度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>优先级</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考的测试用例规格说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了缺陷的描述，包括数据库记录和截屏，在初始的缺陷报告中包括以下哪些信息最有用？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟题5.6，缺陷管理2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -12963,7 +16747,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -13096,6 +16880,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -13105,20 +16902,56 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -13129,22 +16962,28 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -13153,53 +16992,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13511,10 +17305,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30.6" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="55"/>
+      <c r="B1" s="60"/>
       <c r="C1" s="5" t="s">
         <v>62</v>
       </c>
@@ -14582,10 +18376,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C941"/>
+  <dimension ref="A1:C1337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A923" workbookViewId="0">
-      <selection activeCell="A941" sqref="A941:B941"/>
+    <sheetView tabSelected="1" topLeftCell="A1326" workbookViewId="0">
+      <selection activeCell="A1337" sqref="A1337:B1337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -14598,10 +18392,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.4">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="79" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="63"/>
+      <c r="B1" s="80"/>
       <c r="C1" s="20" t="s">
         <v>222</v>
       </c>
@@ -14639,10 +18433,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.4">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="79" t="s">
         <v>270</v>
       </c>
-      <c r="B7" s="63"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="20" t="s">
         <v>222</v>
       </c>
@@ -14680,10 +18474,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.4">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="79" t="s">
         <v>275</v>
       </c>
-      <c r="B13" s="63"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="20" t="s">
         <v>221</v>
       </c>
@@ -14721,10 +18515,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.4">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="80" t="s">
         <v>284</v>
       </c>
-      <c r="B19" s="63"/>
+      <c r="B19" s="80"/>
       <c r="C19" s="20" t="s">
         <v>221</v>
       </c>
@@ -14762,10 +18556,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.4">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="79" t="s">
         <v>285</v>
       </c>
-      <c r="B25" s="64"/>
+      <c r="B25" s="81"/>
       <c r="C25" s="20" t="s">
         <v>290</v>
       </c>
@@ -14803,10 +18597,10 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.4">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="79" t="s">
         <v>291</v>
       </c>
-      <c r="B31" s="63"/>
+      <c r="B31" s="80"/>
       <c r="C31" s="20" t="s">
         <v>221</v>
       </c>
@@ -14844,10 +18638,10 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" customHeight="1">
-      <c r="A37" s="56" t="s">
+      <c r="A37" s="61" t="s">
         <v>296</v>
       </c>
-      <c r="B37" s="57"/>
+      <c r="B37" s="82"/>
       <c r="C37" s="20" t="s">
         <v>222</v>
       </c>
@@ -14885,10 +18679,10 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.4">
-      <c r="A43" s="62" t="s">
+      <c r="A43" s="79" t="s">
         <v>683</v>
       </c>
-      <c r="B43" s="64"/>
+      <c r="B43" s="81"/>
       <c r="C43" s="20" t="s">
         <v>221</v>
       </c>
@@ -14926,10 +18720,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.4">
-      <c r="A49" s="62" t="s">
+      <c r="A49" s="79" t="s">
         <v>305</v>
       </c>
-      <c r="B49" s="64"/>
+      <c r="B49" s="81"/>
       <c r="C49" s="20" t="s">
         <v>223</v>
       </c>
@@ -14967,10 +18761,10 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.4">
-      <c r="A55" s="62" t="s">
+      <c r="A55" s="79" t="s">
         <v>310</v>
       </c>
-      <c r="B55" s="64"/>
+      <c r="B55" s="81"/>
       <c r="C55" s="20" t="s">
         <v>223</v>
       </c>
@@ -15008,10 +18802,10 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.4">
-      <c r="A61" s="62" t="s">
+      <c r="A61" s="79" t="s">
         <v>315</v>
       </c>
-      <c r="B61" s="64"/>
+      <c r="B61" s="81"/>
     </row>
     <row r="62" spans="1:3" ht="14.4">
       <c r="A62" s="20" t="s">
@@ -15037,19 +18831,19 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.4">
-      <c r="A77" s="62" t="s">
+      <c r="A77" s="79" t="s">
         <v>227</v>
       </c>
-      <c r="B77" s="63"/>
+      <c r="B77" s="80"/>
       <c r="C77" s="26" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.4">
-      <c r="A78" s="60" t="s">
+      <c r="A78" s="86" t="s">
         <v>220</v>
       </c>
-      <c r="B78" s="60"/>
+      <c r="B78" s="86"/>
     </row>
     <row r="79" spans="1:3" ht="14.4">
       <c r="A79" s="20">
@@ -15084,10 +18878,10 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="14.4">
-      <c r="A83" s="60" t="s">
+      <c r="A83" s="86" t="s">
         <v>219</v>
       </c>
-      <c r="B83" s="61"/>
+      <c r="B83" s="88"/>
     </row>
     <row r="84" spans="1:3" ht="14.4">
       <c r="A84" s="20" t="s">
@@ -15122,10 +18916,10 @@
       </c>
     </row>
     <row r="89" spans="1:3" ht="14.4">
-      <c r="A89" s="65" t="s">
+      <c r="A89" s="89" t="s">
         <v>230</v>
       </c>
-      <c r="B89" s="65"/>
+      <c r="B89" s="89"/>
       <c r="C89" s="20" t="s">
         <v>222</v>
       </c>
@@ -15203,10 +18997,10 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="29.4" customHeight="1">
-      <c r="A101" s="66" t="s">
+      <c r="A101" s="85" t="s">
         <v>254</v>
       </c>
-      <c r="B101" s="66"/>
+      <c r="B101" s="85"/>
       <c r="C101" s="20" t="s">
         <v>221</v>
       </c>
@@ -15244,10 +19038,10 @@
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="67" t="s">
+      <c r="A107" s="84" t="s">
         <v>244</v>
       </c>
-      <c r="B107" s="66"/>
+      <c r="B107" s="85"/>
       <c r="C107" s="20" t="s">
         <v>221</v>
       </c>
@@ -15285,10 +19079,10 @@
       </c>
     </row>
     <row r="113" spans="1:3" ht="14.4">
-      <c r="A113" s="62" t="s">
+      <c r="A113" s="79" t="s">
         <v>249</v>
       </c>
-      <c r="B113" s="63"/>
+      <c r="B113" s="80"/>
       <c r="C113" s="20" t="s">
         <v>221</v>
       </c>
@@ -15326,10 +19120,10 @@
       </c>
     </row>
     <row r="119" spans="1:3" ht="14.4">
-      <c r="A119" s="62" t="s">
+      <c r="A119" s="79" t="s">
         <v>255</v>
       </c>
-      <c r="B119" s="63"/>
+      <c r="B119" s="80"/>
       <c r="C119" s="20" t="s">
         <v>224</v>
       </c>
@@ -15367,10 +19161,10 @@
       </c>
     </row>
     <row r="125" spans="1:3" ht="14.4">
-      <c r="A125" s="62" t="s">
+      <c r="A125" s="79" t="s">
         <v>260</v>
       </c>
-      <c r="B125" s="63"/>
+      <c r="B125" s="80"/>
       <c r="C125" s="20" t="s">
         <v>317</v>
       </c>
@@ -15408,10 +19202,10 @@
       </c>
     </row>
     <row r="131" spans="1:3" ht="28.8" customHeight="1">
-      <c r="A131" s="67" t="s">
+      <c r="A131" s="84" t="s">
         <v>318</v>
       </c>
-      <c r="B131" s="66"/>
+      <c r="B131" s="85"/>
       <c r="C131" s="20" t="s">
         <v>224</v>
       </c>
@@ -15449,10 +19243,10 @@
       </c>
     </row>
     <row r="137" spans="1:3" ht="14.4">
-      <c r="A137" s="62" t="s">
+      <c r="A137" s="79" t="s">
         <v>323</v>
       </c>
-      <c r="B137" s="63"/>
+      <c r="B137" s="80"/>
       <c r="C137" s="20" t="s">
         <v>221</v>
       </c>
@@ -15490,10 +19284,10 @@
       </c>
     </row>
     <row r="143" spans="1:3" ht="14.4">
-      <c r="A143" s="63" t="s">
+      <c r="A143" s="80" t="s">
         <v>328</v>
       </c>
-      <c r="B143" s="63"/>
+      <c r="B143" s="80"/>
       <c r="C143" s="20" t="s">
         <v>221</v>
       </c>
@@ -15531,10 +19325,10 @@
       </c>
     </row>
     <row r="149" spans="1:3" ht="14.4">
-      <c r="A149" s="63" t="s">
+      <c r="A149" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="B149" s="63"/>
+      <c r="B149" s="80"/>
       <c r="C149" s="20" t="s">
         <v>224</v>
       </c>
@@ -15572,10 +19366,10 @@
       </c>
     </row>
     <row r="155" spans="1:3" ht="14.4">
-      <c r="A155" s="62" t="s">
+      <c r="A155" s="79" t="s">
         <v>342</v>
       </c>
-      <c r="B155" s="63"/>
+      <c r="B155" s="80"/>
       <c r="C155" s="20" t="s">
         <v>222</v>
       </c>
@@ -15613,10 +19407,10 @@
       </c>
     </row>
     <row r="161" spans="1:3" ht="14.4">
-      <c r="A161" s="62" t="s">
+      <c r="A161" s="79" t="s">
         <v>343</v>
       </c>
-      <c r="B161" s="63"/>
+      <c r="B161" s="80"/>
       <c r="C161" s="20" t="s">
         <v>222</v>
       </c>
@@ -15654,10 +19448,10 @@
       </c>
     </row>
     <row r="167" spans="1:3" ht="14.4">
-      <c r="A167" s="62" t="s">
+      <c r="A167" s="79" t="s">
         <v>348</v>
       </c>
-      <c r="B167" s="63"/>
+      <c r="B167" s="80"/>
       <c r="C167" s="20" t="s">
         <v>222</v>
       </c>
@@ -15695,10 +19489,10 @@
       </c>
     </row>
     <row r="173" spans="1:3" ht="14.4">
-      <c r="A173" s="62" t="s">
+      <c r="A173" s="79" t="s">
         <v>353</v>
       </c>
-      <c r="B173" s="63"/>
+      <c r="B173" s="80"/>
       <c r="C173" s="20" t="s">
         <v>224</v>
       </c>
@@ -15736,10 +19530,10 @@
       </c>
     </row>
     <row r="179" spans="1:3" ht="14.4">
-      <c r="A179" s="62" t="s">
+      <c r="A179" s="79" t="s">
         <v>358</v>
       </c>
-      <c r="B179" s="63"/>
+      <c r="B179" s="80"/>
       <c r="C179" s="20" t="s">
         <v>224</v>
       </c>
@@ -15777,10 +19571,10 @@
       </c>
     </row>
     <row r="184" spans="1:3" ht="14.4">
-      <c r="A184" s="68" t="s">
+      <c r="A184" s="71" t="s">
         <v>363</v>
       </c>
-      <c r="B184" s="70"/>
+      <c r="B184" s="72"/>
     </row>
     <row r="185" spans="1:3" ht="14.4">
       <c r="A185" s="20" t="s">
@@ -15815,10 +19609,10 @@
       </c>
     </row>
     <row r="190" spans="1:3" ht="14.4">
-      <c r="A190" s="68" t="s">
+      <c r="A190" s="71" t="s">
         <v>368</v>
       </c>
-      <c r="B190" s="69"/>
+      <c r="B190" s="83"/>
       <c r="C190" s="20" t="s">
         <v>224</v>
       </c>
@@ -15856,10 +19650,10 @@
       </c>
     </row>
     <row r="196" spans="1:3" ht="14.4">
-      <c r="A196" s="68" t="s">
+      <c r="A196" s="71" t="s">
         <v>373</v>
       </c>
-      <c r="B196" s="69"/>
+      <c r="B196" s="83"/>
       <c r="C196" s="20" t="s">
         <v>224</v>
       </c>
@@ -15897,10 +19691,10 @@
       </c>
     </row>
     <row r="202" spans="1:3" ht="14.4">
-      <c r="A202" s="68" t="s">
+      <c r="A202" s="71" t="s">
         <v>378</v>
       </c>
-      <c r="B202" s="69"/>
+      <c r="B202" s="83"/>
       <c r="C202" s="20" t="s">
         <v>222</v>
       </c>
@@ -15938,10 +19732,10 @@
       </c>
     </row>
     <row r="208" spans="1:3" ht="14.4">
-      <c r="A208" s="68" t="s">
+      <c r="A208" s="71" t="s">
         <v>383</v>
       </c>
-      <c r="B208" s="69"/>
+      <c r="B208" s="83"/>
       <c r="C208" s="20" t="s">
         <v>222</v>
       </c>
@@ -15979,10 +19773,10 @@
       </c>
     </row>
     <row r="214" spans="1:3" ht="30.6" customHeight="1">
-      <c r="A214" s="56" t="s">
+      <c r="A214" s="61" t="s">
         <v>388</v>
       </c>
-      <c r="B214" s="57"/>
+      <c r="B214" s="82"/>
       <c r="C214" s="20" t="s">
         <v>223</v>
       </c>
@@ -16020,10 +19814,10 @@
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="56" t="s">
+      <c r="A220" s="61" t="s">
         <v>397</v>
       </c>
-      <c r="B220" s="57"/>
+      <c r="B220" s="82"/>
       <c r="C220" s="20" t="s">
         <v>222</v>
       </c>
@@ -16061,10 +19855,10 @@
       </c>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" s="56" t="s">
+      <c r="A226" s="61" t="s">
         <v>398</v>
       </c>
-      <c r="B226" s="57"/>
+      <c r="B226" s="82"/>
       <c r="C226" s="20" t="s">
         <v>223</v>
       </c>
@@ -16102,10 +19896,10 @@
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" s="58" t="s">
+      <c r="A231" s="74" t="s">
         <v>403</v>
       </c>
-      <c r="B231" s="59"/>
+      <c r="B231" s="87"/>
     </row>
     <row r="232" spans="1:3" ht="14.4">
       <c r="A232" s="20" t="s">
@@ -16140,10 +19934,10 @@
       </c>
     </row>
     <row r="237" spans="1:3">
-      <c r="A237" s="56" t="s">
+      <c r="A237" s="61" t="s">
         <v>408</v>
       </c>
-      <c r="B237" s="57"/>
+      <c r="B237" s="82"/>
       <c r="C237" s="20" t="s">
         <v>221</v>
       </c>
@@ -16181,10 +19975,10 @@
       </c>
     </row>
     <row r="243" spans="1:3">
-      <c r="A243" s="56" t="s">
+      <c r="A243" s="61" t="s">
         <v>413</v>
       </c>
-      <c r="B243" s="57"/>
+      <c r="B243" s="82"/>
       <c r="C243" s="20" t="s">
         <v>223</v>
       </c>
@@ -16226,10 +20020,10 @@
       <c r="C247" s="31"/>
     </row>
     <row r="249" spans="1:3">
-      <c r="A249" s="56" t="s">
+      <c r="A249" s="61" t="s">
         <v>418</v>
       </c>
-      <c r="B249" s="57"/>
+      <c r="B249" s="82"/>
       <c r="C249" s="20" t="s">
         <v>223</v>
       </c>
@@ -16271,10 +20065,10 @@
       <c r="C253" s="31"/>
     </row>
     <row r="255" spans="1:3">
-      <c r="A255" s="56" t="s">
+      <c r="A255" s="61" t="s">
         <v>423</v>
       </c>
-      <c r="B255" s="57"/>
+      <c r="B255" s="82"/>
       <c r="C255" s="20" t="s">
         <v>223</v>
       </c>
@@ -16312,10 +20106,10 @@
       </c>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261" s="56" t="s">
+      <c r="A261" s="61" t="s">
         <v>428</v>
       </c>
-      <c r="B261" s="57"/>
+      <c r="B261" s="82"/>
       <c r="C261" s="20" t="s">
         <v>222</v>
       </c>
@@ -16353,10 +20147,10 @@
       </c>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267" s="56" t="s">
+      <c r="A267" s="61" t="s">
         <v>433</v>
       </c>
-      <c r="B267" s="57"/>
+      <c r="B267" s="82"/>
       <c r="C267" s="20" t="s">
         <v>224</v>
       </c>
@@ -16394,10 +20188,10 @@
       </c>
     </row>
     <row r="273" spans="1:3" ht="44.4" customHeight="1">
-      <c r="A273" s="56" t="s">
+      <c r="A273" s="61" t="s">
         <v>438</v>
       </c>
-      <c r="B273" s="57"/>
+      <c r="B273" s="82"/>
       <c r="C273" s="20" t="s">
         <v>224</v>
       </c>
@@ -16435,10 +20229,10 @@
       </c>
     </row>
     <row r="279" spans="1:3" ht="28.2" customHeight="1">
-      <c r="A279" s="56" t="s">
+      <c r="A279" s="61" t="s">
         <v>443</v>
       </c>
-      <c r="B279" s="74"/>
+      <c r="B279" s="70"/>
       <c r="C279" s="20" t="s">
         <v>449</v>
       </c>
@@ -16476,10 +20270,10 @@
       </c>
     </row>
     <row r="285" spans="1:3" ht="46.2" customHeight="1">
-      <c r="A285" s="56" t="s">
+      <c r="A285" s="61" t="s">
         <v>450</v>
       </c>
-      <c r="B285" s="74"/>
+      <c r="B285" s="70"/>
       <c r="C285" s="20" t="s">
         <v>448</v>
       </c>
@@ -16517,10 +20311,10 @@
       </c>
     </row>
     <row r="291" spans="1:3" ht="49.2" customHeight="1">
-      <c r="A291" s="71" t="s">
+      <c r="A291" s="90" t="s">
         <v>455</v>
       </c>
-      <c r="B291" s="72"/>
+      <c r="B291" s="91"/>
       <c r="C291" s="20" t="s">
         <v>448</v>
       </c>
@@ -16558,10 +20352,10 @@
       </c>
     </row>
     <row r="297" spans="1:3">
-      <c r="A297" s="71" t="s">
+      <c r="A297" s="90" t="s">
         <v>459</v>
       </c>
-      <c r="B297" s="72"/>
+      <c r="B297" s="91"/>
       <c r="C297" s="20" t="s">
         <v>449</v>
       </c>
@@ -16599,10 +20393,10 @@
       </c>
     </row>
     <row r="303" spans="1:3">
-      <c r="A303" s="71" t="s">
+      <c r="A303" s="90" t="s">
         <v>463</v>
       </c>
-      <c r="B303" s="72"/>
+      <c r="B303" s="91"/>
       <c r="C303" s="20" t="s">
         <v>448</v>
       </c>
@@ -16640,10 +20434,10 @@
       </c>
     </row>
     <row r="309" spans="1:3">
-      <c r="A309" s="71" t="s">
+      <c r="A309" s="90" t="s">
         <v>469</v>
       </c>
-      <c r="B309" s="72"/>
+      <c r="B309" s="91"/>
       <c r="C309" s="20" t="s">
         <v>448</v>
       </c>
@@ -16681,10 +20475,10 @@
       </c>
     </row>
     <row r="315" spans="1:3">
-      <c r="A315" s="71" t="s">
+      <c r="A315" s="90" t="s">
         <v>474</v>
       </c>
-      <c r="B315" s="72"/>
+      <c r="B315" s="91"/>
       <c r="C315" s="20" t="s">
         <v>448</v>
       </c>
@@ -16722,10 +20516,10 @@
       </c>
     </row>
     <row r="321" spans="1:3">
-      <c r="A321" s="56" t="s">
+      <c r="A321" s="61" t="s">
         <v>479</v>
       </c>
-      <c r="B321" s="73"/>
+      <c r="B321" s="62"/>
       <c r="C321" s="20" t="s">
         <v>448</v>
       </c>
@@ -16763,10 +20557,10 @@
       </c>
     </row>
     <row r="327" spans="1:3">
-      <c r="A327" s="56" t="s">
+      <c r="A327" s="61" t="s">
         <v>484</v>
       </c>
-      <c r="B327" s="73"/>
+      <c r="B327" s="62"/>
       <c r="C327" s="20" t="s">
         <v>489</v>
       </c>
@@ -16804,10 +20598,10 @@
       </c>
     </row>
     <row r="333" spans="1:3">
-      <c r="A333" s="56" t="s">
+      <c r="A333" s="61" t="s">
         <v>490</v>
       </c>
-      <c r="B333" s="73"/>
+      <c r="B333" s="62"/>
       <c r="C333" s="20" t="s">
         <v>495</v>
       </c>
@@ -16845,10 +20639,10 @@
       </c>
     </row>
     <row r="339" spans="1:3">
-      <c r="A339" s="56" t="s">
+      <c r="A339" s="61" t="s">
         <v>496</v>
       </c>
-      <c r="B339" s="73"/>
+      <c r="B339" s="62"/>
     </row>
     <row r="340" spans="1:3" s="34" customFormat="1" ht="14.4">
       <c r="A340" s="20" t="s">
@@ -16886,10 +20680,10 @@
       </c>
     </row>
     <row r="345" spans="1:3">
-      <c r="A345" s="56" t="s">
+      <c r="A345" s="61" t="s">
         <v>501</v>
       </c>
-      <c r="B345" s="73"/>
+      <c r="B345" s="62"/>
       <c r="C345" s="20" t="s">
         <v>489</v>
       </c>
@@ -16927,10 +20721,10 @@
       </c>
     </row>
     <row r="351" spans="1:3" ht="29.4" customHeight="1">
-      <c r="A351" s="56" t="s">
+      <c r="A351" s="61" t="s">
         <v>506</v>
       </c>
-      <c r="B351" s="73"/>
+      <c r="B351" s="62"/>
       <c r="C351" s="20" t="s">
         <v>448</v>
       </c>
@@ -16968,10 +20762,10 @@
       </c>
     </row>
     <row r="357" spans="1:3" ht="14.4">
-      <c r="A357" s="56" t="s">
+      <c r="A357" s="61" t="s">
         <v>511</v>
       </c>
-      <c r="B357" s="73"/>
+      <c r="B357" s="62"/>
       <c r="C357" s="20" t="s">
         <v>518</v>
       </c>
@@ -17017,10 +20811,10 @@
       </c>
     </row>
     <row r="364" spans="1:3" ht="32.4" customHeight="1">
-      <c r="A364" s="56" t="s">
+      <c r="A364" s="61" t="s">
         <v>519</v>
       </c>
-      <c r="B364" s="73"/>
+      <c r="B364" s="62"/>
       <c r="C364" s="20" t="s">
         <v>448</v>
       </c>
@@ -17058,10 +20852,10 @@
       </c>
     </row>
     <row r="370" spans="1:3" ht="62.4" customHeight="1">
-      <c r="A370" s="56" t="s">
+      <c r="A370" s="61" t="s">
         <v>524</v>
       </c>
-      <c r="B370" s="73"/>
+      <c r="B370" s="62"/>
       <c r="C370" s="20" t="s">
         <v>495</v>
       </c>
@@ -17099,10 +20893,10 @@
       </c>
     </row>
     <row r="376" spans="1:3">
-      <c r="A376" s="56" t="s">
+      <c r="A376" s="61" t="s">
         <v>529</v>
       </c>
-      <c r="B376" s="73"/>
+      <c r="B376" s="62"/>
       <c r="C376" s="20" t="s">
         <v>449</v>
       </c>
@@ -17140,10 +20934,10 @@
       </c>
     </row>
     <row r="382" spans="1:3">
-      <c r="A382" s="56" t="s">
+      <c r="A382" s="61" t="s">
         <v>534</v>
       </c>
-      <c r="B382" s="73"/>
+      <c r="B382" s="62"/>
       <c r="C382" s="20" t="s">
         <v>539</v>
       </c>
@@ -17181,10 +20975,10 @@
       </c>
     </row>
     <row r="388" spans="1:3">
-      <c r="A388" s="56" t="s">
+      <c r="A388" s="61" t="s">
         <v>540</v>
       </c>
-      <c r="B388" s="73"/>
+      <c r="B388" s="62"/>
       <c r="C388" s="20" t="s">
         <v>489</v>
       </c>
@@ -17222,10 +21016,10 @@
       </c>
     </row>
     <row r="394" spans="1:3" ht="13.8" customHeight="1">
-      <c r="A394" s="56" t="s">
+      <c r="A394" s="61" t="s">
         <v>545</v>
       </c>
-      <c r="B394" s="74"/>
+      <c r="B394" s="70"/>
       <c r="C394" s="20" t="s">
         <v>489</v>
       </c>
@@ -17263,10 +21057,10 @@
       </c>
     </row>
     <row r="400" spans="1:3" ht="14.4">
-      <c r="A400" s="56" t="s">
+      <c r="A400" s="61" t="s">
         <v>550</v>
       </c>
-      <c r="B400" s="74"/>
+      <c r="B400" s="70"/>
       <c r="C400" s="20" t="s">
         <v>449</v>
       </c>
@@ -17300,10 +21094,10 @@
       </c>
     </row>
     <row r="406" spans="1:3" ht="13.8" customHeight="1">
-      <c r="A406" s="58" t="s">
+      <c r="A406" s="74" t="s">
         <v>556</v>
       </c>
-      <c r="B406" s="77"/>
+      <c r="B406" s="75"/>
     </row>
     <row r="407" spans="1:3" ht="14.4">
       <c r="A407" s="20" t="s">
@@ -17338,19 +21132,19 @@
       </c>
     </row>
     <row r="412" spans="1:3" ht="14.4">
-      <c r="A412" s="56" t="s">
+      <c r="A412" s="61" t="s">
         <v>561</v>
       </c>
-      <c r="B412" s="74"/>
+      <c r="B412" s="70"/>
       <c r="C412" s="20" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="413" spans="1:3" ht="14.4">
-      <c r="A413" s="75" t="s">
+      <c r="A413" s="65" t="s">
         <v>562</v>
       </c>
-      <c r="B413" s="76"/>
+      <c r="B413" s="67"/>
     </row>
     <row r="414" spans="1:3" ht="14.4">
       <c r="A414" s="20">
@@ -17401,10 +21195,10 @@
       </c>
     </row>
     <row r="420" spans="1:2" ht="14.4">
-      <c r="A420" s="75" t="s">
+      <c r="A420" s="65" t="s">
         <v>569</v>
       </c>
-      <c r="B420" s="76"/>
+      <c r="B420" s="67"/>
     </row>
     <row r="421" spans="1:2" ht="14.4">
       <c r="A421" s="20">
@@ -17455,10 +21249,10 @@
       </c>
     </row>
     <row r="427" spans="1:2" ht="14.4">
-      <c r="A427" s="75" t="s">
+      <c r="A427" s="65" t="s">
         <v>576</v>
       </c>
-      <c r="B427" s="76"/>
+      <c r="B427" s="67"/>
     </row>
     <row r="428" spans="1:2" ht="14.4">
       <c r="A428" s="20">
@@ -17493,10 +21287,10 @@
       </c>
     </row>
     <row r="432" spans="1:2" ht="14.4">
-      <c r="A432" s="75" t="s">
+      <c r="A432" s="65" t="s">
         <v>581</v>
       </c>
-      <c r="B432" s="76"/>
+      <c r="B432" s="67"/>
     </row>
     <row r="433" spans="1:3" ht="14.4">
       <c r="A433" s="20" t="s">
@@ -17531,10 +21325,10 @@
       </c>
     </row>
     <row r="438" spans="1:3" ht="14.4">
-      <c r="A438" s="56" t="s">
+      <c r="A438" s="61" t="s">
         <v>585</v>
       </c>
-      <c r="B438" s="74"/>
+      <c r="B438" s="70"/>
       <c r="C438" s="20" t="s">
         <v>448</v>
       </c>
@@ -17572,10 +21366,10 @@
       </c>
     </row>
     <row r="444" spans="1:3" ht="14.4">
-      <c r="A444" s="56" t="s">
+      <c r="A444" s="61" t="s">
         <v>590</v>
       </c>
-      <c r="B444" s="74"/>
+      <c r="B444" s="70"/>
       <c r="C444" s="20" t="s">
         <v>495</v>
       </c>
@@ -17613,10 +21407,10 @@
       </c>
     </row>
     <row r="450" spans="1:3" ht="14.4">
-      <c r="A450" s="56" t="s">
+      <c r="A450" s="61" t="s">
         <v>595</v>
       </c>
-      <c r="B450" s="74"/>
+      <c r="B450" s="70"/>
       <c r="C450" s="20" t="s">
         <v>495</v>
       </c>
@@ -17654,10 +21448,10 @@
       </c>
     </row>
     <row r="456" spans="1:3" ht="14.4">
-      <c r="A456" s="56" t="s">
+      <c r="A456" s="61" t="s">
         <v>597</v>
       </c>
-      <c r="B456" s="74"/>
+      <c r="B456" s="70"/>
       <c r="C456" s="20" t="s">
         <v>449</v>
       </c>
@@ -17695,10 +21489,10 @@
       </c>
     </row>
     <row r="462" spans="1:3" ht="14.4">
-      <c r="A462" s="56" t="s">
+      <c r="A462" s="61" t="s">
         <v>602</v>
       </c>
-      <c r="B462" s="74"/>
+      <c r="B462" s="70"/>
     </row>
     <row r="463" spans="1:3" ht="14.4">
       <c r="A463" s="20" t="s">
@@ -17733,10 +21527,10 @@
       </c>
     </row>
     <row r="468" spans="1:3" ht="14.4">
-      <c r="A468" s="56" t="s">
+      <c r="A468" s="61" t="s">
         <v>607</v>
       </c>
-      <c r="B468" s="74"/>
+      <c r="B468" s="70"/>
       <c r="C468" s="20" t="s">
         <v>489</v>
       </c>
@@ -17794,10 +21588,10 @@
       </c>
     </row>
     <row r="478" spans="1:3" ht="14.4">
-      <c r="A478" s="56" t="s">
+      <c r="A478" s="61" t="s">
         <v>613</v>
       </c>
-      <c r="B478" s="74"/>
+      <c r="B478" s="70"/>
       <c r="C478" s="20" t="s">
         <v>449</v>
       </c>
@@ -17835,10 +21629,10 @@
       </c>
     </row>
     <row r="484" spans="1:3" ht="14.4">
-      <c r="A484" s="56" t="s">
+      <c r="A484" s="61" t="s">
         <v>619</v>
       </c>
-      <c r="B484" s="74"/>
+      <c r="B484" s="70"/>
       <c r="C484" s="20" t="s">
         <v>624</v>
       </c>
@@ -17876,10 +21670,10 @@
       </c>
     </row>
     <row r="490" spans="1:3" ht="14.4">
-      <c r="A490" s="56" t="s">
+      <c r="A490" s="61" t="s">
         <v>625</v>
       </c>
-      <c r="B490" s="74"/>
+      <c r="B490" s="70"/>
       <c r="C490" s="33" t="s">
         <v>222</v>
       </c>
@@ -17917,19 +21711,19 @@
       </c>
     </row>
     <row r="496" spans="1:3" ht="51" customHeight="1">
-      <c r="A496" s="56" t="s">
+      <c r="A496" s="61" t="s">
         <v>630</v>
       </c>
-      <c r="B496" s="74"/>
+      <c r="B496" s="70"/>
       <c r="C496" s="20" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="497" spans="1:3" ht="30" customHeight="1">
-      <c r="A497" s="58" t="s">
+      <c r="A497" s="74" t="s">
         <v>631</v>
       </c>
-      <c r="B497" s="77"/>
+      <c r="B497" s="75"/>
     </row>
     <row r="498" spans="1:3" ht="14.4">
       <c r="A498" s="20" t="s">
@@ -17972,10 +21766,10 @@
       </c>
     </row>
     <row r="503" spans="1:3" ht="46.8" customHeight="1">
-      <c r="A503" s="58" t="s">
+      <c r="A503" s="74" t="s">
         <v>642</v>
       </c>
-      <c r="B503" s="77"/>
+      <c r="B503" s="75"/>
     </row>
     <row r="504" spans="1:3" ht="14.4">
       <c r="A504" s="20" t="s">
@@ -18010,10 +21804,10 @@
       </c>
     </row>
     <row r="509" spans="1:3" ht="92.4" customHeight="1">
-      <c r="A509" s="56" t="s">
+      <c r="A509" s="61" t="s">
         <v>647</v>
       </c>
-      <c r="B509" s="74"/>
+      <c r="B509" s="70"/>
       <c r="C509" s="20" t="s">
         <v>224</v>
       </c>
@@ -18051,10 +21845,10 @@
       </c>
     </row>
     <row r="515" spans="1:3" ht="14.4">
-      <c r="A515" s="56" t="s">
+      <c r="A515" s="61" t="s">
         <v>652</v>
       </c>
-      <c r="B515" s="74"/>
+      <c r="B515" s="70"/>
       <c r="C515" s="20" t="s">
         <v>223</v>
       </c>
@@ -18092,10 +21886,10 @@
       </c>
     </row>
     <row r="521" spans="1:3" ht="14.4">
-      <c r="A521" s="56" t="s">
+      <c r="A521" s="61" t="s">
         <v>657</v>
       </c>
-      <c r="B521" s="74"/>
+      <c r="B521" s="70"/>
       <c r="C521" s="20" t="s">
         <v>224</v>
       </c>
@@ -18133,10 +21927,10 @@
       </c>
     </row>
     <row r="527" spans="1:3" ht="14.4">
-      <c r="A527" s="56" t="s">
+      <c r="A527" s="61" t="s">
         <v>662</v>
       </c>
-      <c r="B527" s="74"/>
+      <c r="B527" s="70"/>
       <c r="C527" s="20" t="s">
         <v>221</v>
       </c>
@@ -18182,10 +21976,10 @@
       </c>
     </row>
     <row r="533" spans="1:3" ht="14.4">
-      <c r="A533" s="75" t="s">
+      <c r="A533" s="65" t="s">
         <v>668</v>
       </c>
-      <c r="B533" s="76"/>
+      <c r="B533" s="67"/>
     </row>
     <row r="534" spans="1:3" ht="14.4">
       <c r="A534" s="20" t="s">
@@ -18220,10 +22014,10 @@
       </c>
     </row>
     <row r="539" spans="1:3" ht="30" customHeight="1">
-      <c r="A539" s="56" t="s">
+      <c r="A539" s="61" t="s">
         <v>673</v>
       </c>
-      <c r="B539" s="74"/>
+      <c r="B539" s="70"/>
       <c r="C539" s="20" t="s">
         <v>221</v>
       </c>
@@ -18261,10 +22055,10 @@
       </c>
     </row>
     <row r="545" spans="1:3" ht="14.4">
-      <c r="A545" s="56" t="s">
+      <c r="A545" s="61" t="s">
         <v>678</v>
       </c>
-      <c r="B545" s="74"/>
+      <c r="B545" s="70"/>
       <c r="C545" s="31" t="s">
         <v>224</v>
       </c>
@@ -18302,10 +22096,10 @@
       </c>
     </row>
     <row r="551" spans="1:3" ht="29.4" customHeight="1">
-      <c r="A551" s="56" t="s">
+      <c r="A551" s="61" t="s">
         <v>684</v>
       </c>
-      <c r="B551" s="74"/>
+      <c r="B551" s="70"/>
       <c r="C551" s="20" t="s">
         <v>689</v>
       </c>
@@ -18343,10 +22137,10 @@
       </c>
     </row>
     <row r="557" spans="1:3" ht="31.8" customHeight="1">
-      <c r="A557" s="56" t="s">
+      <c r="A557" s="61" t="s">
         <v>690</v>
       </c>
-      <c r="B557" s="74"/>
+      <c r="B557" s="70"/>
       <c r="C557" s="20" t="s">
         <v>224</v>
       </c>
@@ -18376,10 +22170,10 @@
       </c>
     </row>
     <row r="561" spans="1:3" ht="33.6" customHeight="1">
-      <c r="A561" s="78" t="s">
+      <c r="A561" s="77" t="s">
         <v>694</v>
       </c>
-      <c r="B561" s="79"/>
+      <c r="B561" s="78"/>
     </row>
     <row r="562" spans="1:3" ht="28.8">
       <c r="A562" s="20">
@@ -18398,10 +22192,10 @@
       </c>
     </row>
     <row r="564" spans="1:3" ht="14.4">
-      <c r="A564" s="75" t="s">
+      <c r="A564" s="65" t="s">
         <v>697</v>
       </c>
-      <c r="B564" s="76"/>
+      <c r="B564" s="67"/>
     </row>
     <row r="565" spans="1:3">
       <c r="A565" s="20" t="s">
@@ -18436,10 +22230,10 @@
       </c>
     </row>
     <row r="570" spans="1:3" ht="14.4">
-      <c r="A570" s="56" t="s">
+      <c r="A570" s="61" t="s">
         <v>698</v>
       </c>
-      <c r="B570" s="74"/>
+      <c r="B570" s="70"/>
       <c r="C570" s="20" t="s">
         <v>222</v>
       </c>
@@ -18469,10 +22263,10 @@
       </c>
     </row>
     <row r="574" spans="1:3" ht="14.4">
-      <c r="A574" s="75" t="s">
+      <c r="A574" s="65" t="s">
         <v>702</v>
       </c>
-      <c r="B574" s="76"/>
+      <c r="B574" s="67"/>
     </row>
     <row r="575" spans="1:3" ht="14.4">
       <c r="A575" s="20" t="s">
@@ -18507,10 +22301,10 @@
       </c>
     </row>
     <row r="580" spans="1:3" ht="14.4">
-      <c r="A580" s="56" t="s">
+      <c r="A580" s="61" t="s">
         <v>707</v>
       </c>
-      <c r="B580" s="74"/>
+      <c r="B580" s="70"/>
       <c r="C580" s="20" t="s">
         <v>224</v>
       </c>
@@ -18533,10 +22327,10 @@
       </c>
     </row>
     <row r="584" spans="1:3">
-      <c r="A584" s="58" t="s">
+      <c r="A584" s="74" t="s">
         <v>711</v>
       </c>
-      <c r="B584" s="81"/>
+      <c r="B584" s="64"/>
     </row>
     <row r="585" spans="1:3">
       <c r="A585" s="20" t="s">
@@ -18571,10 +22365,10 @@
       </c>
     </row>
     <row r="590" spans="1:3" ht="14.4">
-      <c r="A590" s="56" t="s">
+      <c r="A590" s="61" t="s">
         <v>712</v>
       </c>
-      <c r="B590" s="74"/>
+      <c r="B590" s="70"/>
       <c r="C590" s="20" t="s">
         <v>223</v>
       </c>
@@ -18600,10 +22394,10 @@
       </c>
     </row>
     <row r="595" spans="1:3" ht="14.4">
-      <c r="A595" s="75" t="s">
+      <c r="A595" s="65" t="s">
         <v>717</v>
       </c>
-      <c r="B595" s="82"/>
+      <c r="B595" s="76"/>
     </row>
     <row r="596" spans="1:3" ht="14.4">
       <c r="A596" s="20" t="s">
@@ -18638,10 +22432,10 @@
       </c>
     </row>
     <row r="601" spans="1:3" ht="31.8" customHeight="1">
-      <c r="A601" s="56" t="s">
+      <c r="A601" s="61" t="s">
         <v>723</v>
       </c>
-      <c r="B601" s="74"/>
+      <c r="B601" s="70"/>
       <c r="C601" s="20" t="s">
         <v>222</v>
       </c>
@@ -18667,10 +22461,10 @@
       </c>
     </row>
     <row r="606" spans="1:3" ht="14.4">
-      <c r="A606" s="75" t="s">
+      <c r="A606" s="65" t="s">
         <v>722</v>
       </c>
-      <c r="B606" s="80"/>
+      <c r="B606" s="66"/>
     </row>
     <row r="607" spans="1:3">
       <c r="A607" s="20" t="s">
@@ -18705,10 +22499,10 @@
       </c>
     </row>
     <row r="612" spans="1:3" ht="74.400000000000006" customHeight="1">
-      <c r="A612" s="56" t="s">
+      <c r="A612" s="61" t="s">
         <v>728</v>
       </c>
-      <c r="B612" s="74"/>
+      <c r="B612" s="70"/>
       <c r="C612" s="20" t="s">
         <v>222</v>
       </c>
@@ -18746,10 +22540,10 @@
       </c>
     </row>
     <row r="618" spans="1:3" ht="19.2" customHeight="1">
-      <c r="A618" s="56" t="s">
+      <c r="A618" s="61" t="s">
         <v>729</v>
       </c>
-      <c r="B618" s="74"/>
+      <c r="B618" s="70"/>
       <c r="C618" s="20" t="s">
         <v>224</v>
       </c>
@@ -18780,10 +22574,10 @@
       </c>
     </row>
     <row r="624" spans="1:3" ht="14.4">
-      <c r="A624" s="75" t="s">
+      <c r="A624" s="65" t="s">
         <v>734</v>
       </c>
-      <c r="B624" s="76"/>
+      <c r="B624" s="67"/>
     </row>
     <row r="625" spans="1:3" ht="14.4">
       <c r="A625" s="20" t="s">
@@ -18818,10 +22612,10 @@
       </c>
     </row>
     <row r="630" spans="1:3" ht="62.4" customHeight="1">
-      <c r="A630" s="56" t="s">
+      <c r="A630" s="61" t="s">
         <v>740</v>
       </c>
-      <c r="B630" s="74"/>
+      <c r="B630" s="70"/>
       <c r="C630" s="20" t="s">
         <v>221</v>
       </c>
@@ -18859,10 +22653,10 @@
       </c>
     </row>
     <row r="636" spans="1:3" ht="78.599999999999994" customHeight="1">
-      <c r="A636" s="56" t="s">
+      <c r="A636" s="61" t="s">
         <v>780</v>
       </c>
-      <c r="B636" s="74"/>
+      <c r="B636" s="70"/>
       <c r="C636" s="20" t="s">
         <v>223</v>
       </c>
@@ -18900,10 +22694,10 @@
       </c>
     </row>
     <row r="642" spans="1:3" ht="34.200000000000003" customHeight="1">
-      <c r="A642" s="56" t="s">
+      <c r="A642" s="61" t="s">
         <v>749</v>
       </c>
-      <c r="B642" s="74"/>
+      <c r="B642" s="70"/>
       <c r="C642" s="20" t="s">
         <v>223</v>
       </c>
@@ -18934,10 +22728,10 @@
       </c>
     </row>
     <row r="648" spans="1:3" ht="14.4">
-      <c r="A648" s="75" t="s">
+      <c r="A648" s="65" t="s">
         <v>755</v>
       </c>
-      <c r="B648" s="76"/>
+      <c r="B648" s="67"/>
     </row>
     <row r="649" spans="1:3" ht="14.4">
       <c r="A649" s="20" t="s">
@@ -18972,10 +22766,10 @@
       </c>
     </row>
     <row r="654" spans="1:3" ht="14.4">
-      <c r="A654" s="56" t="s">
+      <c r="A654" s="61" t="s">
         <v>760</v>
       </c>
-      <c r="B654" s="74"/>
+      <c r="B654" s="70"/>
       <c r="C654" s="20" t="s">
         <v>223</v>
       </c>
@@ -19013,10 +22807,10 @@
       </c>
     </row>
     <row r="660" spans="1:3" ht="105" customHeight="1">
-      <c r="A660" s="56" t="s">
+      <c r="A660" s="61" t="s">
         <v>765</v>
       </c>
-      <c r="B660" s="74"/>
+      <c r="B660" s="70"/>
       <c r="C660" s="20" t="s">
         <v>224</v>
       </c>
@@ -19054,10 +22848,10 @@
       </c>
     </row>
     <row r="666" spans="1:3" ht="14.4">
-      <c r="A666" s="56" t="s">
+      <c r="A666" s="61" t="s">
         <v>770</v>
       </c>
-      <c r="B666" s="74"/>
+      <c r="B666" s="70"/>
       <c r="C666" s="20" t="s">
         <v>222</v>
       </c>
@@ -19083,10 +22877,10 @@
       </c>
     </row>
     <row r="671" spans="1:3" ht="14.4">
-      <c r="A671" s="75" t="s">
+      <c r="A671" s="65" t="s">
         <v>774</v>
       </c>
-      <c r="B671" s="76"/>
+      <c r="B671" s="67"/>
     </row>
     <row r="672" spans="1:3" ht="14.4">
       <c r="A672" s="20" t="s">
@@ -19121,10 +22915,10 @@
       </c>
     </row>
     <row r="677" spans="1:3" ht="73.2" customHeight="1">
-      <c r="A677" s="56" t="s">
+      <c r="A677" s="61" t="s">
         <v>779</v>
       </c>
-      <c r="B677" s="74"/>
+      <c r="B677" s="70"/>
       <c r="C677" s="20" t="s">
         <v>223</v>
       </c>
@@ -19162,10 +22956,10 @@
       </c>
     </row>
     <row r="683" spans="1:3" ht="14.4">
-      <c r="A683" s="56" t="s">
+      <c r="A683" s="61" t="s">
         <v>784</v>
       </c>
-      <c r="B683" s="74"/>
+      <c r="B683" s="70"/>
       <c r="C683" s="20" t="s">
         <v>224</v>
       </c>
@@ -19203,10 +22997,10 @@
       </c>
     </row>
     <row r="689" spans="1:3" ht="30" customHeight="1">
-      <c r="A689" s="56" t="s">
+      <c r="A689" s="61" t="s">
         <v>789</v>
       </c>
-      <c r="B689" s="74"/>
+      <c r="B689" s="70"/>
       <c r="C689" s="20" t="s">
         <v>224</v>
       </c>
@@ -19252,10 +23046,10 @@
       </c>
     </row>
     <row r="695" spans="1:3" ht="14.4">
-      <c r="A695" s="75" t="s">
+      <c r="A695" s="65" t="s">
         <v>800</v>
       </c>
-      <c r="B695" s="76"/>
+      <c r="B695" s="67"/>
     </row>
     <row r="696" spans="1:3" ht="14.4">
       <c r="A696" s="20" t="s">
@@ -19290,19 +23084,19 @@
       </c>
     </row>
     <row r="701" spans="1:3" ht="30.6" customHeight="1">
-      <c r="A701" s="56" t="s">
+      <c r="A701" s="61" t="s">
         <v>805</v>
       </c>
-      <c r="B701" s="74"/>
+      <c r="B701" s="70"/>
       <c r="C701" s="20" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="702" spans="1:3" ht="50.4" customHeight="1">
-      <c r="A702" s="58" t="s">
+      <c r="A702" s="74" t="s">
         <v>806</v>
       </c>
-      <c r="B702" s="77"/>
+      <c r="B702" s="75"/>
     </row>
     <row r="703" spans="1:3">
       <c r="A703" s="20" t="s">
@@ -19337,10 +23131,10 @@
       </c>
     </row>
     <row r="708" spans="1:3" ht="14.4">
-      <c r="A708" s="56" t="s">
+      <c r="A708" s="61" t="s">
         <v>807</v>
       </c>
-      <c r="B708" s="74"/>
+      <c r="B708" s="70"/>
       <c r="C708" s="20" t="s">
         <v>223</v>
       </c>
@@ -19354,7 +23148,7 @@
       </c>
     </row>
     <row r="710" spans="1:3" ht="14.4">
-      <c r="A710" s="83" t="s">
+      <c r="A710" s="68" t="s">
         <v>794</v>
       </c>
       <c r="B710" s="21" t="s">
@@ -19362,13 +23156,13 @@
       </c>
     </row>
     <row r="711" spans="1:3" ht="14.4">
-      <c r="A711" s="84"/>
+      <c r="A711" s="73"/>
       <c r="B711" s="21" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="712" spans="1:3" ht="14.4">
-      <c r="A712" s="83" t="s">
+      <c r="A712" s="68" t="s">
         <v>809</v>
       </c>
       <c r="B712" s="21" t="s">
@@ -19376,16 +23170,16 @@
       </c>
     </row>
     <row r="713" spans="1:3" ht="14.4">
-      <c r="A713" s="84"/>
+      <c r="A713" s="73"/>
       <c r="B713" s="22" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="714" spans="1:3" ht="14.4">
-      <c r="A714" s="75" t="s">
+      <c r="A714" s="65" t="s">
         <v>815</v>
       </c>
-      <c r="B714" s="76"/>
+      <c r="B714" s="67"/>
     </row>
     <row r="715" spans="1:3" ht="14.4">
       <c r="A715" s="44" t="s">
@@ -19396,7 +23190,7 @@
       </c>
     </row>
     <row r="716" spans="1:3" ht="14.4">
-      <c r="A716" s="83" t="s">
+      <c r="A716" s="68" t="s">
         <v>817</v>
       </c>
       <c r="B716" s="22" t="s">
@@ -19404,13 +23198,13 @@
       </c>
     </row>
     <row r="717" spans="1:3" ht="14.4">
-      <c r="A717" s="84"/>
+      <c r="A717" s="73"/>
       <c r="B717" s="22" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="718" spans="1:3" ht="14.4">
-      <c r="A718" s="83" t="s">
+      <c r="A718" s="68" t="s">
         <v>822</v>
       </c>
       <c r="B718" s="21" t="s">
@@ -19418,16 +23212,16 @@
       </c>
     </row>
     <row r="719" spans="1:3" ht="14.4">
-      <c r="A719" s="86"/>
+      <c r="A719" s="69"/>
       <c r="B719" s="21" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="720" spans="1:3" ht="28.2" customHeight="1">
-      <c r="A720" s="85" t="s">
+      <c r="A720" s="63" t="s">
         <v>823</v>
       </c>
-      <c r="B720" s="81"/>
+      <c r="B720" s="64"/>
     </row>
     <row r="721" spans="1:3" ht="14.4">
       <c r="A721" s="20" t="s">
@@ -19462,10 +23256,10 @@
       </c>
     </row>
     <row r="726" spans="1:3" ht="14.4">
-      <c r="A726" s="56" t="s">
+      <c r="A726" s="61" t="s">
         <v>828</v>
       </c>
-      <c r="B726" s="74"/>
+      <c r="B726" s="70"/>
       <c r="C726" s="20" t="s">
         <v>221</v>
       </c>
@@ -19503,10 +23297,10 @@
       </c>
     </row>
     <row r="732" spans="1:3" ht="14.4">
-      <c r="A732" s="68" t="s">
+      <c r="A732" s="71" t="s">
         <v>833</v>
       </c>
-      <c r="B732" s="70"/>
+      <c r="B732" s="72"/>
       <c r="C732" s="20" t="s">
         <v>222</v>
       </c>
@@ -19557,22 +23351,22 @@
       </c>
     </row>
     <row r="739" spans="1:3" ht="14.4">
-      <c r="A739" s="75" t="s">
+      <c r="A739" s="65" t="s">
         <v>844</v>
       </c>
-      <c r="B739" s="76"/>
+      <c r="B739" s="67"/>
     </row>
     <row r="740" spans="1:3" ht="14.4">
-      <c r="A740" s="75" t="s">
+      <c r="A740" s="65" t="s">
         <v>845</v>
       </c>
-      <c r="B740" s="76"/>
+      <c r="B740" s="67"/>
     </row>
     <row r="741" spans="1:3" ht="14.4">
-      <c r="A741" s="75" t="s">
+      <c r="A741" s="65" t="s">
         <v>846</v>
       </c>
-      <c r="B741" s="76"/>
+      <c r="B741" s="67"/>
     </row>
     <row r="742" spans="1:3" ht="14.4">
       <c r="A742" s="20" t="s">
@@ -19607,10 +23401,10 @@
       </c>
     </row>
     <row r="747" spans="1:3" ht="44.4" customHeight="1">
-      <c r="A747" s="56" t="s">
+      <c r="A747" s="61" t="s">
         <v>851</v>
       </c>
-      <c r="B747" s="73"/>
+      <c r="B747" s="62"/>
       <c r="C747" s="20" t="s">
         <v>222</v>
       </c>
@@ -19685,16 +23479,16 @@
       </c>
     </row>
     <row r="757" spans="1:3" ht="60.6" customHeight="1">
-      <c r="A757" s="85" t="s">
+      <c r="A757" s="63" t="s">
         <v>869</v>
       </c>
-      <c r="B757" s="76"/>
+      <c r="B757" s="67"/>
     </row>
     <row r="758" spans="1:3" s="32" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A758" s="85" t="s">
+      <c r="A758" s="63" t="s">
         <v>865</v>
       </c>
-      <c r="B758" s="81"/>
+      <c r="B758" s="64"/>
       <c r="C758" s="31"/>
     </row>
     <row r="759" spans="1:3">
@@ -19730,10 +23524,10 @@
       </c>
     </row>
     <row r="764" spans="1:3">
-      <c r="A764" s="56" t="s">
+      <c r="A764" s="61" t="s">
         <v>870</v>
       </c>
-      <c r="B764" s="73"/>
+      <c r="B764" s="62"/>
       <c r="C764" s="20" t="s">
         <v>882</v>
       </c>
@@ -19784,10 +23578,10 @@
       </c>
     </row>
     <row r="771" spans="1:3" ht="65.400000000000006" customHeight="1">
-      <c r="A771" s="85" t="s">
+      <c r="A771" s="63" t="s">
         <v>881</v>
       </c>
-      <c r="B771" s="81"/>
+      <c r="B771" s="64"/>
     </row>
     <row r="772" spans="1:3">
       <c r="A772" s="20" t="s">
@@ -19822,10 +23616,10 @@
       </c>
     </row>
     <row r="777" spans="1:3">
-      <c r="A777" s="56" t="s">
+      <c r="A777" s="61" t="s">
         <v>883</v>
       </c>
-      <c r="B777" s="73"/>
+      <c r="B777" s="62"/>
       <c r="C777" s="20" t="s">
         <v>222</v>
       </c>
@@ -19863,10 +23657,10 @@
       </c>
     </row>
     <row r="782" spans="1:3" ht="14.4">
-      <c r="A782" s="75" t="s">
+      <c r="A782" s="65" t="s">
         <v>895</v>
       </c>
-      <c r="B782" s="80"/>
+      <c r="B782" s="66"/>
     </row>
     <row r="783" spans="1:3" ht="14.4">
       <c r="A783" s="20" t="s">
@@ -19901,10 +23695,10 @@
       </c>
     </row>
     <row r="788" spans="1:3">
-      <c r="A788" s="56" t="s">
+      <c r="A788" s="61" t="s">
         <v>896</v>
       </c>
-      <c r="B788" s="73"/>
+      <c r="B788" s="62"/>
       <c r="C788" s="20" t="s">
         <v>224</v>
       </c>
@@ -19970,10 +23764,10 @@
       </c>
     </row>
     <row r="799" spans="1:3" ht="49.8" customHeight="1">
-      <c r="A799" s="56" t="s">
+      <c r="A799" s="61" t="s">
         <v>905</v>
       </c>
-      <c r="B799" s="73"/>
+      <c r="B799" s="62"/>
       <c r="C799" s="20" t="s">
         <v>223</v>
       </c>
@@ -20011,10 +23805,10 @@
       </c>
     </row>
     <row r="805" spans="1:3" ht="34.200000000000003" customHeight="1">
-      <c r="A805" s="56" t="s">
+      <c r="A805" s="61" t="s">
         <v>906</v>
       </c>
-      <c r="B805" s="73"/>
+      <c r="B805" s="62"/>
       <c r="C805" s="20" t="s">
         <v>223</v>
       </c>
@@ -20052,10 +23846,10 @@
       </c>
     </row>
     <row r="811" spans="1:3" ht="61.2" customHeight="1">
-      <c r="A811" s="56" t="s">
+      <c r="A811" s="61" t="s">
         <v>908</v>
       </c>
-      <c r="B811" s="73"/>
+      <c r="B811" s="62"/>
       <c r="C811" s="20" t="s">
         <v>221</v>
       </c>
@@ -20093,10 +23887,10 @@
       </c>
     </row>
     <row r="817" spans="1:3" ht="15" customHeight="1">
-      <c r="A817" s="56" t="s">
+      <c r="A817" s="61" t="s">
         <v>909</v>
       </c>
-      <c r="B817" s="73"/>
+      <c r="B817" s="62"/>
       <c r="C817" s="20" t="s">
         <v>922</v>
       </c>
@@ -20166,10 +23960,10 @@
       </c>
     </row>
     <row r="827" spans="1:3">
-      <c r="A827" s="56" t="s">
+      <c r="A827" s="61" t="s">
         <v>923</v>
       </c>
-      <c r="B827" s="73"/>
+      <c r="B827" s="62"/>
       <c r="C827" s="20" t="s">
         <v>221</v>
       </c>
@@ -20207,10 +24001,10 @@
       </c>
     </row>
     <row r="833" spans="1:3">
-      <c r="A833" s="56" t="s">
+      <c r="A833" s="61" t="s">
         <v>928</v>
       </c>
-      <c r="B833" s="73"/>
+      <c r="B833" s="62"/>
       <c r="C833" s="20" t="s">
         <v>222</v>
       </c>
@@ -20248,10 +24042,10 @@
       </c>
     </row>
     <row r="839" spans="1:3">
-      <c r="A839" s="56" t="s">
+      <c r="A839" s="61" t="s">
         <v>933</v>
       </c>
-      <c r="B839" s="73"/>
+      <c r="B839" s="62"/>
       <c r="C839" s="20" t="s">
         <v>222</v>
       </c>
@@ -20289,10 +24083,10 @@
       </c>
     </row>
     <row r="845" spans="1:3">
-      <c r="A845" s="56" t="s">
+      <c r="A845" s="61" t="s">
         <v>938</v>
       </c>
-      <c r="B845" s="73"/>
+      <c r="B845" s="62"/>
       <c r="C845" s="20" t="s">
         <v>224</v>
       </c>
@@ -20330,10 +24124,10 @@
       </c>
     </row>
     <row r="851" spans="1:3" ht="61.2" customHeight="1">
-      <c r="A851" s="56" t="s">
+      <c r="A851" s="61" t="s">
         <v>943</v>
       </c>
-      <c r="B851" s="73"/>
+      <c r="B851" s="62"/>
       <c r="C851" s="20" t="s">
         <v>222</v>
       </c>
@@ -20371,10 +24165,10 @@
       </c>
     </row>
     <row r="857" spans="1:3">
-      <c r="A857" s="56" t="s">
+      <c r="A857" s="61" t="s">
         <v>948</v>
       </c>
-      <c r="B857" s="73"/>
+      <c r="B857" s="62"/>
       <c r="C857" s="20" t="s">
         <v>222</v>
       </c>
@@ -20412,10 +24206,10 @@
       </c>
     </row>
     <row r="863" spans="1:3">
-      <c r="A863" s="56" t="s">
+      <c r="A863" s="61" t="s">
         <v>953</v>
       </c>
-      <c r="B863" s="73"/>
+      <c r="B863" s="62"/>
       <c r="C863" s="20" t="s">
         <v>221</v>
       </c>
@@ -20453,10 +24247,10 @@
       </c>
     </row>
     <row r="869" spans="1:3">
-      <c r="A869" s="56" t="s">
+      <c r="A869" s="61" t="s">
         <v>958</v>
       </c>
-      <c r="B869" s="73"/>
+      <c r="B869" s="62"/>
       <c r="C869" s="20" t="s">
         <v>221</v>
       </c>
@@ -20542,10 +24336,10 @@
       </c>
     </row>
     <row r="881" spans="1:3">
-      <c r="A881" s="56" t="s">
+      <c r="A881" s="61" t="s">
         <v>970</v>
       </c>
-      <c r="B881" s="73"/>
+      <c r="B881" s="62"/>
       <c r="C881" s="20" t="s">
         <v>224</v>
       </c>
@@ -20583,10 +24377,10 @@
       </c>
     </row>
     <row r="887" spans="1:3" ht="45.6" customHeight="1">
-      <c r="A887" s="56" t="s">
+      <c r="A887" s="61" t="s">
         <v>975</v>
       </c>
-      <c r="B887" s="73"/>
+      <c r="B887" s="62"/>
       <c r="C887" s="20" t="s">
         <v>224</v>
       </c>
@@ -20624,10 +24418,10 @@
       </c>
     </row>
     <row r="893" spans="1:3" ht="99.6" customHeight="1">
-      <c r="A893" s="56" t="s">
+      <c r="A893" s="61" t="s">
         <v>977</v>
       </c>
-      <c r="B893" s="73"/>
+      <c r="B893" s="62"/>
       <c r="C893" s="20" t="s">
         <v>221</v>
       </c>
@@ -20665,10 +24459,10 @@
       </c>
     </row>
     <row r="899" spans="1:3">
-      <c r="A899" s="56" t="s">
+      <c r="A899" s="61" t="s">
         <v>980</v>
       </c>
-      <c r="B899" s="73"/>
+      <c r="B899" s="62"/>
       <c r="C899" s="20" t="s">
         <v>222</v>
       </c>
@@ -20706,10 +24500,10 @@
       </c>
     </row>
     <row r="905" spans="1:3">
-      <c r="A905" s="56" t="s">
+      <c r="A905" s="61" t="s">
         <v>985</v>
       </c>
-      <c r="B905" s="73"/>
+      <c r="B905" s="62"/>
       <c r="C905" s="33" t="s">
         <v>222</v>
       </c>
@@ -20747,10 +24541,10 @@
       </c>
     </row>
     <row r="911" spans="1:3">
-      <c r="A911" s="56" t="s">
+      <c r="A911" s="61" t="s">
         <v>990</v>
       </c>
-      <c r="B911" s="73"/>
+      <c r="B911" s="62"/>
       <c r="C911" s="20" t="s">
         <v>223</v>
       </c>
@@ -20775,7 +24569,7 @@
       <c r="A914" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="B914" s="88" t="s">
+      <c r="B914" s="56" t="s">
         <v>994</v>
       </c>
     </row>
@@ -20783,15 +24577,15 @@
       <c r="A915" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="B915" s="87" t="s">
+      <c r="B915" s="55" t="s">
         <v>993</v>
       </c>
     </row>
     <row r="917" spans="1:3">
-      <c r="A917" s="56" t="s">
+      <c r="A917" s="61" t="s">
         <v>995</v>
       </c>
-      <c r="B917" s="73"/>
+      <c r="B917" s="62"/>
       <c r="C917" s="20" t="s">
         <v>221</v>
       </c>
@@ -20829,10 +24623,10 @@
       </c>
     </row>
     <row r="923" spans="1:3">
-      <c r="A923" s="56" t="s">
+      <c r="A923" s="61" t="s">
         <v>1000</v>
       </c>
-      <c r="B923" s="73"/>
+      <c r="B923" s="62"/>
       <c r="C923" s="20" t="s">
         <v>224</v>
       </c>
@@ -20870,10 +24664,10 @@
       </c>
     </row>
     <row r="929" spans="1:3">
-      <c r="A929" s="56" t="s">
+      <c r="A929" s="61" t="s">
         <v>1005</v>
       </c>
-      <c r="B929" s="73"/>
+      <c r="B929" s="62"/>
       <c r="C929" s="20" t="s">
         <v>223</v>
       </c>
@@ -20911,10 +24705,10 @@
       </c>
     </row>
     <row r="935" spans="1:3">
-      <c r="A935" s="56" t="s">
+      <c r="A935" s="61" t="s">
         <v>1010</v>
       </c>
-      <c r="B935" s="73"/>
+      <c r="B935" s="62"/>
       <c r="C935" s="20" t="s">
         <v>223</v>
       </c>
@@ -20952,121 +24746,2825 @@
       </c>
     </row>
     <row r="941" spans="1:3">
-      <c r="A941" s="56" t="s">
+      <c r="A941" s="61" t="s">
         <v>1015</v>
       </c>
-      <c r="B941" s="73"/>
+      <c r="B941" s="62"/>
+      <c r="C941" s="20" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="942" spans="1:3" ht="28.8">
+      <c r="A942" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B942" s="35" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="943" spans="1:3" ht="14.4">
+      <c r="A943" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B943" s="22" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="944" spans="1:3" ht="14.4">
+      <c r="A944" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B944" s="22" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="945" spans="1:3" ht="14.4">
+      <c r="A945" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="B945" s="22" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="947" spans="1:3" ht="45.6" customHeight="1">
+      <c r="A947" s="61" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B947" s="62"/>
+      <c r="C947" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="948" spans="1:3" ht="14.4">
+      <c r="A948" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B948" s="22" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="949" spans="1:3" ht="14.4">
+      <c r="A949" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B949" s="22" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="950" spans="1:3" ht="14.4">
+      <c r="A950" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B950" s="23" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="951" spans="1:3" ht="14.4">
+      <c r="A951" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="B951" s="22" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="953" spans="1:3">
+      <c r="A953" s="61" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B953" s="62"/>
+      <c r="C953" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="954" spans="1:3" ht="14.4">
+      <c r="A954" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B954" s="22" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="955" spans="1:3" ht="14.4">
+      <c r="A955" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B955" s="22" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="956" spans="1:3" ht="28.8">
+      <c r="A956" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B956" s="54" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="957" spans="1:3" ht="14.4">
+      <c r="A957" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="B957" s="22" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="959" spans="1:3">
+      <c r="A959" s="61" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B959" s="62"/>
+      <c r="C959" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="960" spans="1:3" ht="14.4">
+      <c r="A960" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B960" s="22" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="961" spans="1:3" ht="14.4">
+      <c r="A961" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B961" s="22" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="962" spans="1:3" ht="28.8">
+      <c r="A962" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B962" s="36" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="963" spans="1:3" ht="14.4">
+      <c r="A963" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="B963" s="23" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="965" spans="1:3">
+      <c r="A965" s="61" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B965" s="62"/>
+      <c r="C965" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="966" spans="1:3" ht="14.4">
+      <c r="A966" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B966" s="22" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="967" spans="1:3" ht="14.4">
+      <c r="A967" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B967" s="22" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="968" spans="1:3" ht="14.4">
+      <c r="A968" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B968" s="22" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="969" spans="1:3" ht="14.4">
+      <c r="A969" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="B969" s="23" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="971" spans="1:3">
+      <c r="A971" s="61" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B971" s="62"/>
+      <c r="C971" s="20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="972" spans="1:3" ht="14.4">
+      <c r="A972" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B972" s="23" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="973" spans="1:3" ht="14.4">
+      <c r="A973" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B973" s="22" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="974" spans="1:3" ht="14.4">
+      <c r="A974" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B974" s="22" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="975" spans="1:3" ht="14.4">
+      <c r="A975" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="B975" s="22" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="977" spans="1:3">
+      <c r="A977" s="61" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B977" s="62"/>
+      <c r="C977" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="978" spans="1:3" ht="14.4">
+      <c r="A978" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B978" s="22" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="979" spans="1:3" ht="14.4">
+      <c r="A979" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B979" s="22" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="980" spans="1:3" ht="14.4">
+      <c r="A980" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B980" s="23" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="981" spans="1:3" ht="14.4">
+      <c r="A981" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="B981" s="22" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="983" spans="1:3">
+      <c r="A983" s="61" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B983" s="62"/>
+      <c r="C983" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="984" spans="1:3" ht="14.4">
+      <c r="A984" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B984" s="22" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="985" spans="1:3" ht="14.4">
+      <c r="A985" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B985" s="22" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="986" spans="1:3" ht="14.4">
+      <c r="A986" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B986" s="23" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="987" spans="1:3" ht="14.4">
+      <c r="A987" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="B987" s="22" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="989" spans="1:3">
+      <c r="A989" s="61" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B989" s="62"/>
+      <c r="C989" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="990" spans="1:3" ht="14.4">
+      <c r="A990" s="20">
+        <v>1</v>
+      </c>
+      <c r="B990" s="22" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="991" spans="1:3" ht="14.4">
+      <c r="A991" s="20">
+        <v>2</v>
+      </c>
+      <c r="B991" s="22" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="992" spans="1:3" ht="14.4">
+      <c r="A992" s="20">
+        <v>3</v>
+      </c>
+      <c r="B992" s="22" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="993" spans="1:3" ht="14.4">
+      <c r="A993" s="20">
+        <v>4</v>
+      </c>
+      <c r="B993" s="22" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="994" spans="1:3">
+      <c r="A994" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B994" s="21" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="995" spans="1:3">
+      <c r="A995" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B995" s="21" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="996" spans="1:3">
+      <c r="A996" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B996" s="52" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="997" spans="1:3">
+      <c r="A997" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="B997" s="21" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="999" spans="1:3">
+      <c r="A999" s="61" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B999" s="62"/>
+      <c r="C999" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:3" ht="14.4">
+      <c r="A1000" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1000" s="22" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:3" ht="14.4">
+      <c r="A1001" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1001" s="22" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:3" ht="14.4">
+      <c r="A1002" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1002" s="22" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:3" ht="14.4">
+      <c r="A1003" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1003" s="23" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:3" ht="31.8" customHeight="1">
+      <c r="A1005" s="61" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1005" s="62"/>
+      <c r="C1005" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:3" ht="14.4">
+      <c r="A1006" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1006" s="22" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:3" ht="14.4">
+      <c r="A1007" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1007" s="22" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:3" ht="14.4">
+      <c r="A1008" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1008" s="22" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:3" ht="14.4">
+      <c r="A1009" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1009" s="23" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:3">
+      <c r="A1011" s="61" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B1011" s="62"/>
+      <c r="C1011" s="20" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:3" ht="14.4">
+      <c r="A1012" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1012" s="23" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:3" ht="14.4">
+      <c r="A1013" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1013" s="23" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:3" ht="14.4">
+      <c r="A1014" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1014" s="22" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:3" ht="14.4">
+      <c r="A1015" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1015" s="22" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:3" ht="14.4">
+      <c r="A1016" s="33" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1016" s="22" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:3" ht="30" customHeight="1">
+      <c r="A1018" s="61" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B1018" s="62"/>
+      <c r="C1018" s="20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:3" ht="14.4">
+      <c r="A1019" s="20">
+        <v>1</v>
+      </c>
+      <c r="B1019" s="22" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:3" ht="14.4">
+      <c r="A1020" s="20">
+        <v>2</v>
+      </c>
+      <c r="B1020" s="22" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:3" ht="14.4">
+      <c r="A1021" s="20">
+        <v>3</v>
+      </c>
+      <c r="B1021" s="22" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:3" ht="14.4">
+      <c r="A1022" s="20">
+        <v>4</v>
+      </c>
+      <c r="B1022" s="22" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:3" ht="14.4">
+      <c r="A1023" s="65" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B1023" s="67"/>
+    </row>
+    <row r="1024" spans="1:3" ht="14.4">
+      <c r="A1024" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1024" s="22" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:3" ht="14.4">
+      <c r="A1025" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1025" s="23" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:3" ht="14.4">
+      <c r="A1026" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1026" s="22" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:3" ht="14.4">
+      <c r="A1027" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1027" s="22" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:3">
+      <c r="A1029" s="61" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1029" s="62"/>
+      <c r="C1029" s="20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:3" ht="14.4">
+      <c r="A1030" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1030" s="27" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:3" ht="14.4">
+      <c r="A1031" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1031" s="22" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:3" ht="14.4">
+      <c r="A1032" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1032" s="22" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:3" ht="14.4">
+      <c r="A1033" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1033" s="22" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:3">
+      <c r="A1035" s="61" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B1035" s="62"/>
+      <c r="C1035" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:3" ht="14.4">
+      <c r="A1036" s="20">
+        <v>1</v>
+      </c>
+      <c r="B1036" s="21" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:3" ht="14.4">
+      <c r="A1037" s="20">
+        <v>2</v>
+      </c>
+      <c r="B1037" s="21" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:3" ht="14.4">
+      <c r="A1038" s="20">
+        <v>3</v>
+      </c>
+      <c r="B1038" s="22" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:3" ht="14.4">
+      <c r="A1039" s="20">
+        <v>4</v>
+      </c>
+      <c r="B1039" s="22" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:3" ht="14.4">
+      <c r="A1040" s="20">
+        <v>5</v>
+      </c>
+      <c r="B1040" s="22" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:3" ht="14.4">
+      <c r="A1041" s="20">
+        <v>6</v>
+      </c>
+      <c r="B1041" s="22" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:3" ht="14.4">
+      <c r="A1042" s="65" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B1042" s="67"/>
+    </row>
+    <row r="1043" spans="1:3" ht="14.4">
+      <c r="A1043" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1043" s="22" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:3" ht="14.4">
+      <c r="A1044" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1044" s="22" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:3" ht="14.4">
+      <c r="A1045" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1045" s="22" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:3" ht="14.4">
+      <c r="A1046" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1046" s="23" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:3">
+      <c r="A1048" s="61" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1048" s="62"/>
+      <c r="C1048" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:3" ht="14.4">
+      <c r="A1049" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1049" s="22" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:3" ht="14.4">
+      <c r="A1050" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1050" s="22" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:3" ht="14.4">
+      <c r="A1051" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1051" s="22" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:3" ht="14.4">
+      <c r="A1052" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1052" s="23" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:3">
+      <c r="A1054" s="61" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B1054" s="62"/>
+      <c r="C1054" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:3" ht="14.4">
+      <c r="B1055" s="21" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:3" ht="14.4">
+      <c r="B1056" s="21" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:3" ht="14.4">
+      <c r="B1057" s="21" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:3" ht="14.4">
+      <c r="B1058" s="21" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:3" ht="14.4">
+      <c r="B1059" s="21" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:3" ht="14.4">
+      <c r="B1060" s="21" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:3" ht="14.4">
+      <c r="B1061" s="21" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:3" ht="14.4">
+      <c r="A1062" s="92" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B1062" s="67"/>
+    </row>
+    <row r="1063" spans="1:3" ht="14.4">
+      <c r="A1063" s="65" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B1063" s="66"/>
+    </row>
+    <row r="1064" spans="1:3">
+      <c r="A1064" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1064" s="21" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:3">
+      <c r="A1065" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1065" s="21" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:3">
+      <c r="A1066" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1066" s="52" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:3">
+      <c r="A1067" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1067" s="21" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:3">
+      <c r="A1069" s="61" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B1069" s="62"/>
+      <c r="C1069" s="20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:3" ht="14.4">
+      <c r="A1070" s="44" t="s">
+        <v>884</v>
+      </c>
+      <c r="B1070" s="21" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:3" ht="14.4">
+      <c r="A1071" s="20" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B1071" s="22" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:3" ht="14.4">
+      <c r="A1072" s="20" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B1072" s="22" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:3" ht="14.4">
+      <c r="A1073" s="20" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B1073" s="57" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:3" ht="14.4">
+      <c r="A1074" s="20" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B1074" s="22" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:3" ht="14.4">
+      <c r="A1075" s="20" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B1075" s="22" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:3" ht="14.4">
+      <c r="A1076" s="20" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B1076" s="22" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:3" ht="14.4">
+      <c r="A1077" s="65" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B1077" s="76"/>
+    </row>
+    <row r="1078" spans="1:3">
+      <c r="A1078" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1078" s="21" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:3">
+      <c r="A1079" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1079" s="52" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:3">
+      <c r="A1080" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1080" s="21" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:3">
+      <c r="A1081" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1081" s="21" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:3" ht="61.2" customHeight="1">
+      <c r="A1083" s="61" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1083" s="62"/>
+      <c r="C1083" s="20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:3" ht="14.4">
+      <c r="A1084" s="44" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B1084" s="21" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:3" ht="14.4">
+      <c r="A1085" s="44" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B1085" s="21" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:3" ht="14.4">
+      <c r="A1086" s="44" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B1086" s="21" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:3" ht="14.4">
+      <c r="A1087" s="65" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B1087" s="67"/>
+    </row>
+    <row r="1088" spans="1:3" ht="14.4">
+      <c r="A1088" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1088" s="21" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:3" ht="14.4">
+      <c r="A1089" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1089" s="21" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:3" ht="14.4">
+      <c r="A1090" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1090" s="21" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:3" ht="14.4">
+      <c r="A1091" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1091" s="21" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:3">
+      <c r="A1093" s="61" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B1093" s="62"/>
+      <c r="C1093" s="20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:3" ht="14.4">
+      <c r="A1094" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1094" s="23" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:3" ht="14.4">
+      <c r="A1095" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1095" s="22" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:3" ht="14.4">
+      <c r="A1096" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1096" s="22" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:3" ht="14.4">
+      <c r="A1097" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1097" s="22" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:3">
+      <c r="A1099" s="61" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B1099" s="62"/>
+      <c r="C1099" s="20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:3" ht="14.4">
+      <c r="A1100" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1100" s="23" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:3" ht="14.4">
+      <c r="A1101" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1101" s="22" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:3" ht="14.4">
+      <c r="A1102" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1102" s="22" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:3" ht="14.4">
+      <c r="A1103" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1103" s="22" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:3">
+      <c r="A1105" s="61" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B1105" s="62"/>
+      <c r="C1105" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:3" ht="14.4">
+      <c r="A1106" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1106" s="22" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:3" ht="14.4">
+      <c r="A1107" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1107" s="22" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:3" ht="14.4">
+      <c r="A1108" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1108" s="23" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:3" ht="14.4">
+      <c r="A1109" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1109" s="22" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:3" ht="31.8" customHeight="1">
+      <c r="A1111" s="61" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B1111" s="62"/>
+      <c r="C1111" s="20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:3" ht="14.4">
+      <c r="A1112" s="44" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B1112" s="21" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:3" ht="14.4">
+      <c r="A1113" s="20" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B1113" s="22" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:3" ht="14.4">
+      <c r="A1114" s="20" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B1114" s="22" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:3" ht="14.4">
+      <c r="A1115" s="20" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B1115" s="22" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:3" ht="14.4">
+      <c r="A1116" s="20" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B1116" s="22" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:3" ht="14.4">
+      <c r="A1117" s="20" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B1117" s="22" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:3" ht="14.4">
+      <c r="A1118" s="65" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B1118" s="67"/>
+    </row>
+    <row r="1119" spans="1:3" ht="14.4">
+      <c r="A1119" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1119" s="21" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:3" ht="14.4">
+      <c r="A1120" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1120" s="27" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:3" ht="14.4">
+      <c r="A1121" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1121" s="21" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:3" ht="14.4">
+      <c r="A1122" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1122" s="21" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:3">
+      <c r="A1124" s="61" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B1124" s="62"/>
+      <c r="C1124" s="20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:3" ht="14.4">
+      <c r="A1125" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1125" s="23" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:3" ht="14.4">
+      <c r="A1126" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1126" s="21" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:3" ht="14.4">
+      <c r="A1127" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1127" s="21" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:3" ht="14.4">
+      <c r="A1128" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1128" s="22" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:3" ht="61.2" customHeight="1">
+      <c r="A1130" s="61" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B1130" s="62"/>
+      <c r="C1130" s="20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:3" ht="14.4">
+      <c r="A1131" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1131" s="22" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:3" ht="14.4">
+      <c r="A1132" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1132" s="23" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:3" ht="14.4">
+      <c r="A1133" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1133" s="22" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:3" ht="14.4">
+      <c r="A1134" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1134" s="22" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:3" ht="31.8" customHeight="1">
+      <c r="A1136" s="61" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1136" s="62"/>
+      <c r="C1136" s="20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:3" ht="14.4">
+      <c r="A1137" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1137" s="22" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:3" ht="14.4">
+      <c r="A1138" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1138" s="23" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:3" ht="14.4">
+      <c r="A1139" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1139" s="22" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:3" ht="14.4">
+      <c r="A1140" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1140" s="22" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:3">
+      <c r="A1142" s="61" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B1142" s="62"/>
+      <c r="C1142" s="20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:3" ht="14.4">
+      <c r="A1143" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1143" s="23" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:3" ht="14.4">
+      <c r="A1144" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1144" s="22" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:3" ht="14.4">
+      <c r="A1145" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1145" s="22" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:3" ht="14.4">
+      <c r="A1146" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1146" s="22" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:3">
+      <c r="A1148" s="61" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B1148" s="62"/>
+      <c r="C1148" s="20" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:3" ht="14.4">
+      <c r="A1149" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1149" s="23" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:3" ht="14.4">
+      <c r="A1150" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1150" s="23" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:3" ht="14.4">
+      <c r="A1151" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1151" s="22" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:3" ht="14.4">
+      <c r="A1152" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1152" s="22" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:3" ht="14.4">
+      <c r="A1153" s="20" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1153" s="22" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:3">
+      <c r="A1155" s="61" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1155" s="62"/>
+      <c r="C1155" s="20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:3" ht="14.4">
+      <c r="A1156" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1156" s="23" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:3" ht="14.4">
+      <c r="A1157" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1157" s="22" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:3" ht="14.4">
+      <c r="A1158" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1158" s="22" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:3" ht="14.4">
+      <c r="A1159" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1159" s="22" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:3" ht="34.200000000000003" customHeight="1">
+      <c r="A1161" s="61" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B1161" s="62"/>
+      <c r="C1161" s="20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:3" ht="14.4">
+      <c r="A1162" s="44" t="s">
+        <v>884</v>
+      </c>
+      <c r="B1162" s="22" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:3" ht="14.4">
+      <c r="A1163" s="20">
+        <v>1</v>
+      </c>
+      <c r="B1163" s="22" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:3" ht="14.4">
+      <c r="A1164" s="20">
+        <v>2</v>
+      </c>
+      <c r="B1164" s="22" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:3" ht="14.4">
+      <c r="A1165" s="20">
+        <v>3</v>
+      </c>
+      <c r="B1165" s="22" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:3" ht="14.4">
+      <c r="A1166" s="20">
+        <v>4</v>
+      </c>
+      <c r="B1166" s="22" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:3" ht="14.4">
+      <c r="A1167" s="20">
+        <v>5</v>
+      </c>
+      <c r="B1167" s="22" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:3" ht="14.4">
+      <c r="A1168" s="20">
+        <v>6</v>
+      </c>
+      <c r="B1168" s="22" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:3" ht="60" customHeight="1">
+      <c r="A1169" s="74" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B1169" s="67"/>
+    </row>
+    <row r="1170" spans="1:3" ht="14.4">
+      <c r="A1170" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1170" s="21" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:3" ht="14.4">
+      <c r="A1171" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1171" s="27" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:3" ht="14.4">
+      <c r="A1172" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1172" s="21" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:3" ht="14.4">
+      <c r="A1173" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1173" s="21" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:3">
+      <c r="A1175" s="61" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B1175" s="62"/>
+      <c r="C1175" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:3" ht="14.4">
+      <c r="A1176" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1176" s="22" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:3" ht="14.4">
+      <c r="A1177" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1177" s="22" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:3" ht="14.4">
+      <c r="A1178" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1178" s="22" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:3" ht="14.4">
+      <c r="A1179" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1179" s="23" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:3">
+      <c r="A1181" s="61" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1181" s="62"/>
+      <c r="C1181" s="20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:3" ht="14.4">
+      <c r="A1182" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1182" s="23" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:3" ht="14.4">
+      <c r="A1183" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1183" s="22" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:3" ht="14.4">
+      <c r="A1184" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1184" s="22" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:3" ht="14.4">
+      <c r="A1185" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1185" s="22" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:3">
+      <c r="A1187" s="61" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B1187" s="62"/>
+      <c r="C1187" s="20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:3" ht="14.4">
+      <c r="A1188" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1188" s="27" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:3" ht="14.4">
+      <c r="A1189" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1189" s="22" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:3" ht="14.4">
+      <c r="A1190" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1190" s="22" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:3" ht="14.4">
+      <c r="A1191" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1191" s="22" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:3">
+      <c r="A1193" s="61" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B1193" s="62"/>
+      <c r="C1193" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:3" ht="14.4">
+      <c r="A1194" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1194" s="22" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:3" ht="14.4">
+      <c r="A1195" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1195" s="22" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:3" ht="14.4">
+      <c r="A1196" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1196" s="22" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:3" ht="14.4">
+      <c r="A1197" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1197" s="23" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:3">
+      <c r="A1199" s="61" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B1199" s="62"/>
+      <c r="C1199" s="20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:3" ht="28.8">
+      <c r="A1200" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1200" s="29" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:3" ht="28.8">
+      <c r="A1201" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1201" s="28" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:3" ht="28.8">
+      <c r="A1202" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1202" s="28" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:3" ht="14.4">
+      <c r="A1203" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1203" s="22" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:3">
+      <c r="A1205" s="61" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B1205" s="62"/>
+      <c r="C1205" s="20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:3" ht="14.4">
+      <c r="A1206" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1206" s="22" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:3" ht="14.4">
+      <c r="A1207" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1207" s="22" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:3" ht="14.4">
+      <c r="A1208" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1208" s="22" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:3" ht="14.4">
+      <c r="A1209" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1209" s="22" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:3">
+      <c r="A1211" s="61" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B1211" s="62"/>
+      <c r="C1211" s="20" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:3" ht="14.4">
+      <c r="A1212" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1212" s="22" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:3" ht="14.4">
+      <c r="A1213" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1213" s="22" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:3" ht="14.4">
+      <c r="A1214" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1214" s="22" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:3" ht="14.4">
+      <c r="A1215" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1215" s="23" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:3">
+      <c r="A1217" s="61" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B1217" s="62"/>
+      <c r="C1217" s="20" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:3" ht="14.4">
+      <c r="A1218" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1218" s="22" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:3" ht="14.4">
+      <c r="A1219" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1219" s="22" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:3" ht="14.4">
+      <c r="A1220" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1220" s="22" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:3" ht="14.4">
+      <c r="A1221" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1221" s="23" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:3" ht="156.6" customHeight="1">
+      <c r="A1223" s="61" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1223" s="62"/>
+      <c r="C1223" s="20" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:3" ht="14.4">
+      <c r="A1224" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1224" s="21" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:3" ht="14.4">
+      <c r="A1225" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1225" s="21" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:3" ht="14.4">
+      <c r="A1226" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1226" s="27" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:3" ht="14.4">
+      <c r="A1227" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1227" s="22" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:3" ht="15.6" customHeight="1">
+      <c r="A1229" s="61" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B1229" s="62"/>
+      <c r="C1229" s="20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:3" ht="14.4">
+      <c r="A1230" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1230" s="22" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:3" ht="14.4">
+      <c r="A1231" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1231" s="23" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:3" ht="14.4">
+      <c r="A1232" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1232" s="22" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:3" ht="14.4">
+      <c r="A1233" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1233" s="22" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:3">
+      <c r="A1235" s="61" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B1235" s="62"/>
+      <c r="C1235" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:3" ht="14.4">
+      <c r="A1236" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1236" s="22" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:3" ht="14.4">
+      <c r="A1237" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1237" s="22" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:3" ht="14.4">
+      <c r="A1238" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1238" s="23" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:3" ht="14.4">
+      <c r="A1239" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1239" s="22" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:3">
+      <c r="A1241" s="61" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B1241" s="62"/>
+      <c r="C1241" s="20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:3" ht="14.4">
+      <c r="A1242" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1242" s="23" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:3" ht="14.4">
+      <c r="A1243" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1243" s="22" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:3" ht="14.4">
+      <c r="A1244" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1244" s="22" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:3" ht="14.4">
+      <c r="A1245" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1245" s="22" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:3">
+      <c r="A1247" s="61" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B1247" s="62"/>
+      <c r="C1247" s="20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:3" ht="14.4">
+      <c r="A1248" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1248" s="22" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:3" ht="14.4">
+      <c r="A1249" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1249" s="23" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:3" ht="14.4">
+      <c r="A1250" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1250" s="22" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:3" ht="14.4">
+      <c r="A1251" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1251" s="22" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:3" ht="46.2" customHeight="1">
+      <c r="A1253" s="61" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B1253" s="62"/>
+      <c r="C1253" s="20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:3" ht="14.4">
+      <c r="A1254" s="20" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B1254" s="21" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:3" ht="14.4">
+      <c r="A1255" s="20" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B1255" s="21" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:3" ht="14.4">
+      <c r="A1256" s="20" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B1256" s="21" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:3" ht="14.4">
+      <c r="A1257" s="20" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B1257" s="21" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:3" ht="14.4">
+      <c r="A1258" s="65" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B1258" s="67"/>
+    </row>
+    <row r="1259" spans="1:3">
+      <c r="A1259" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1259" s="41" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:3">
+      <c r="A1260" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1260" s="58" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:3">
+      <c r="A1261" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1261" s="41" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:3">
+      <c r="A1262" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1262" s="41" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:3" ht="32.4" customHeight="1">
+      <c r="A1264" s="61" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B1264" s="62"/>
+      <c r="C1264" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:3" ht="14.4">
+      <c r="A1265" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1265" s="22" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:3" ht="14.4">
+      <c r="A1266" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1266" s="22" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:3" ht="14.4">
+      <c r="A1267" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1267" s="22" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:3" ht="14.4">
+      <c r="A1268" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1268" s="23" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:3">
+      <c r="A1270" s="61" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1270" s="62"/>
+      <c r="C1270" s="20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:3" ht="14.4">
+      <c r="A1271" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1271" s="23" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:3" ht="14.4">
+      <c r="A1272" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1272" s="22" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:3" ht="14.4">
+      <c r="A1273" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1273" s="21" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:3" ht="14.4">
+      <c r="A1274" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1274" s="22" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:3">
+      <c r="A1276" s="61" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B1276" s="62"/>
+      <c r="C1276" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:3" ht="14.4">
+      <c r="A1277" s="20">
+        <v>1</v>
+      </c>
+      <c r="B1277" s="22" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:3" ht="14.4">
+      <c r="A1278" s="20">
+        <v>2</v>
+      </c>
+      <c r="B1278" s="22" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:3" ht="14.4">
+      <c r="A1279" s="20">
+        <v>3</v>
+      </c>
+      <c r="B1279" s="22" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:3" ht="14.4">
+      <c r="A1280" s="20">
+        <v>4</v>
+      </c>
+      <c r="B1280" s="22" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:3" ht="14.4">
+      <c r="A1281" s="20">
+        <v>5</v>
+      </c>
+      <c r="B1281" s="22" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:3" ht="14.4">
+      <c r="A1282" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1282" s="21" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:3">
+      <c r="A1283" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1283" s="41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:3" ht="14.4">
+      <c r="A1284" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1284" s="27" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:3">
+      <c r="A1285" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1285" s="41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:3">
+      <c r="A1287" s="61" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B1287" s="62"/>
+      <c r="C1287" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:3" ht="14.4">
+      <c r="A1288" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1288" s="22" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:3" ht="14.4">
+      <c r="A1289" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1289" s="22" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:3" ht="14.4">
+      <c r="A1290" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1290" s="22" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:3" ht="14.4">
+      <c r="A1291" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1291" s="23" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:3">
+      <c r="A1293" s="61" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B1293" s="62"/>
+      <c r="C1293" s="20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:3" ht="14.4">
+      <c r="A1294" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1294" s="22" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:3" ht="14.4">
+      <c r="A1295" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1295" s="22" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:3" ht="14.4">
+      <c r="A1296" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1296" s="22" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:3" ht="14.4">
+      <c r="A1297" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1297" s="22" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:3" ht="14.4">
+      <c r="A1298" s="20" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1298" s="22" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:3" ht="14.4">
+      <c r="A1299" s="65" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B1299" s="67"/>
+    </row>
+    <row r="1300" spans="1:3" ht="14.4">
+      <c r="A1300" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1300" s="21" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:3" ht="14.4">
+      <c r="A1301" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1301" s="27" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:3" ht="14.4">
+      <c r="A1302" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1302" s="21" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:3" ht="14.4">
+      <c r="A1303" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1303" s="21" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:3">
+      <c r="A1305" s="61" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B1305" s="62"/>
+      <c r="C1305" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:3" ht="14.4">
+      <c r="A1306" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1306" s="22" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:3" ht="14.4">
+      <c r="A1307" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1307" s="22" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:3" ht="14.4">
+      <c r="A1308" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1308" s="23" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:3" ht="14.4">
+      <c r="A1309" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1309" s="22" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:3" ht="91.8" customHeight="1">
+      <c r="A1311" s="61" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B1311" s="62"/>
+      <c r="C1311" s="20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:3" ht="14.4">
+      <c r="A1312" s="65" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B1312" s="67"/>
+    </row>
+    <row r="1313" spans="1:3" ht="14.4">
+      <c r="A1313" s="44" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B1313" s="22" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:3" ht="14.4">
+      <c r="A1314" s="44" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B1314" s="21" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:3" ht="14.4">
+      <c r="A1315" s="44" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B1315" s="21" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:3" ht="14.4">
+      <c r="A1316" s="44" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B1316" s="22" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:3" ht="14.4">
+      <c r="A1317" s="44" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B1317" s="22" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:3" ht="14.4">
+      <c r="A1318" s="65" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B1318" s="67"/>
+    </row>
+    <row r="1319" spans="1:3" ht="14.4">
+      <c r="A1319" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1319" s="22" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:3" ht="14.4">
+      <c r="A1320" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1320" s="23" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:3" ht="14.4">
+      <c r="A1321" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1321" s="22" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:3" ht="14.4">
+      <c r="A1322" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1322" s="22" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:3" ht="58.8" customHeight="1">
+      <c r="A1324" s="61" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B1324" s="62"/>
+      <c r="C1324" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:3" ht="14.4">
+      <c r="A1325" s="20">
+        <v>1</v>
+      </c>
+      <c r="B1325" s="21" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:3" ht="14.4">
+      <c r="A1326" s="20">
+        <v>2</v>
+      </c>
+      <c r="B1326" s="22" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:3" ht="14.4">
+      <c r="A1327" s="20">
+        <v>3</v>
+      </c>
+      <c r="B1327" s="22" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:3" ht="14.4">
+      <c r="A1328" s="20">
+        <v>4</v>
+      </c>
+      <c r="B1328" s="21" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:2" ht="14.4">
+      <c r="A1329" s="20">
+        <v>5</v>
+      </c>
+      <c r="B1329" s="22" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:2" ht="14.4">
+      <c r="A1330" s="20">
+        <v>6</v>
+      </c>
+      <c r="B1330" s="22" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:2" ht="14.4">
+      <c r="A1331" s="65" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B1331" s="67"/>
+    </row>
+    <row r="1332" spans="1:2" ht="14.4">
+      <c r="A1332" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1332" s="21" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:2" ht="14.4">
+      <c r="A1333" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1333" s="21" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:2" ht="14.4">
+      <c r="A1334" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1334" s="21" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:2" ht="14.4">
+      <c r="A1335" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1335" s="27" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:2">
+      <c r="A1337" s="61" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B1337" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="163">
-    <mergeCell ref="A923:B923"/>
-    <mergeCell ref="A929:B929"/>
-    <mergeCell ref="A935:B935"/>
-    <mergeCell ref="A941:B941"/>
-    <mergeCell ref="A881:B881"/>
-    <mergeCell ref="A887:B887"/>
-    <mergeCell ref="A893:B893"/>
-    <mergeCell ref="A899:B899"/>
-    <mergeCell ref="A905:B905"/>
-    <mergeCell ref="A911:B911"/>
-    <mergeCell ref="A917:B917"/>
-    <mergeCell ref="A827:B827"/>
-    <mergeCell ref="A833:B833"/>
-    <mergeCell ref="A839:B839"/>
-    <mergeCell ref="A845:B845"/>
-    <mergeCell ref="A851:B851"/>
-    <mergeCell ref="A857:B857"/>
-    <mergeCell ref="A863:B863"/>
-    <mergeCell ref="A869:B869"/>
-    <mergeCell ref="A771:B771"/>
-    <mergeCell ref="A777:B777"/>
-    <mergeCell ref="A782:B782"/>
-    <mergeCell ref="A788:B788"/>
-    <mergeCell ref="A799:B799"/>
-    <mergeCell ref="A805:B805"/>
-    <mergeCell ref="A811:B811"/>
-    <mergeCell ref="A817:B817"/>
-    <mergeCell ref="A764:B764"/>
-    <mergeCell ref="A740:B740"/>
-    <mergeCell ref="A741:B741"/>
-    <mergeCell ref="A747:B747"/>
-    <mergeCell ref="A758:B758"/>
-    <mergeCell ref="A757:B757"/>
-    <mergeCell ref="A718:A719"/>
-    <mergeCell ref="A720:B720"/>
-    <mergeCell ref="A726:B726"/>
-    <mergeCell ref="A732:B732"/>
-    <mergeCell ref="A739:B739"/>
-    <mergeCell ref="A708:B708"/>
-    <mergeCell ref="A714:B714"/>
-    <mergeCell ref="A716:A717"/>
-    <mergeCell ref="A710:A711"/>
-    <mergeCell ref="A712:A713"/>
-    <mergeCell ref="A689:B689"/>
-    <mergeCell ref="A695:B695"/>
-    <mergeCell ref="A701:B701"/>
-    <mergeCell ref="A702:B702"/>
-    <mergeCell ref="A660:B660"/>
-    <mergeCell ref="A666:B666"/>
-    <mergeCell ref="A671:B671"/>
-    <mergeCell ref="A677:B677"/>
-    <mergeCell ref="A683:B683"/>
-    <mergeCell ref="A630:B630"/>
-    <mergeCell ref="A636:B636"/>
-    <mergeCell ref="A642:B642"/>
-    <mergeCell ref="A648:B648"/>
-    <mergeCell ref="A654:B654"/>
-    <mergeCell ref="A601:B601"/>
-    <mergeCell ref="A606:B606"/>
-    <mergeCell ref="A612:B612"/>
-    <mergeCell ref="A618:B618"/>
-    <mergeCell ref="A624:B624"/>
-    <mergeCell ref="A574:B574"/>
-    <mergeCell ref="A580:B580"/>
-    <mergeCell ref="A584:B584"/>
-    <mergeCell ref="A590:B590"/>
-    <mergeCell ref="A595:B595"/>
-    <mergeCell ref="A557:B557"/>
-    <mergeCell ref="A561:B561"/>
-    <mergeCell ref="A564:B564"/>
-    <mergeCell ref="A570:B570"/>
-    <mergeCell ref="A539:B539"/>
-    <mergeCell ref="A545:B545"/>
-    <mergeCell ref="A551:B551"/>
-    <mergeCell ref="A509:B509"/>
-    <mergeCell ref="A515:B515"/>
-    <mergeCell ref="A521:B521"/>
-    <mergeCell ref="A527:B527"/>
-    <mergeCell ref="A533:B533"/>
-    <mergeCell ref="A484:B484"/>
-    <mergeCell ref="A490:B490"/>
-    <mergeCell ref="A496:B496"/>
-    <mergeCell ref="A497:B497"/>
-    <mergeCell ref="A503:B503"/>
-    <mergeCell ref="A450:B450"/>
-    <mergeCell ref="A456:B456"/>
-    <mergeCell ref="A462:B462"/>
-    <mergeCell ref="A468:B468"/>
-    <mergeCell ref="A478:B478"/>
-    <mergeCell ref="A420:B420"/>
-    <mergeCell ref="A427:B427"/>
-    <mergeCell ref="A432:B432"/>
-    <mergeCell ref="A438:B438"/>
-    <mergeCell ref="A444:B444"/>
-    <mergeCell ref="A394:B394"/>
-    <mergeCell ref="A400:B400"/>
-    <mergeCell ref="A406:B406"/>
-    <mergeCell ref="A412:B412"/>
-    <mergeCell ref="A413:B413"/>
-    <mergeCell ref="A370:B370"/>
-    <mergeCell ref="A376:B376"/>
-    <mergeCell ref="A382:B382"/>
-    <mergeCell ref="A388:B388"/>
-    <mergeCell ref="A339:B339"/>
-    <mergeCell ref="A345:B345"/>
-    <mergeCell ref="A351:B351"/>
-    <mergeCell ref="A357:B357"/>
-    <mergeCell ref="A364:B364"/>
+  <mergeCells count="228">
+    <mergeCell ref="A1337:B1337"/>
+    <mergeCell ref="A1287:B1287"/>
+    <mergeCell ref="A1293:B1293"/>
+    <mergeCell ref="A1299:B1299"/>
+    <mergeCell ref="A1305:B1305"/>
+    <mergeCell ref="A1311:B1311"/>
+    <mergeCell ref="A1312:B1312"/>
+    <mergeCell ref="A1318:B1318"/>
+    <mergeCell ref="A1324:B1324"/>
+    <mergeCell ref="A1331:B1331"/>
+    <mergeCell ref="A1229:B1229"/>
+    <mergeCell ref="A1235:B1235"/>
+    <mergeCell ref="A1241:B1241"/>
+    <mergeCell ref="A1247:B1247"/>
+    <mergeCell ref="A1253:B1253"/>
+    <mergeCell ref="A1258:B1258"/>
+    <mergeCell ref="A1264:B1264"/>
+    <mergeCell ref="A1270:B1270"/>
+    <mergeCell ref="A1276:B1276"/>
+    <mergeCell ref="A1199:B1199"/>
+    <mergeCell ref="A1205:B1205"/>
+    <mergeCell ref="A1211:B1211"/>
+    <mergeCell ref="A1155:B1155"/>
+    <mergeCell ref="A1161:B1161"/>
+    <mergeCell ref="A1169:B1169"/>
+    <mergeCell ref="A1175:B1175"/>
+    <mergeCell ref="A1181:B1181"/>
+    <mergeCell ref="A1187:B1187"/>
+    <mergeCell ref="A1193:B1193"/>
+    <mergeCell ref="A1099:B1099"/>
+    <mergeCell ref="A1105:B1105"/>
+    <mergeCell ref="A1111:B1111"/>
+    <mergeCell ref="A1118:B1118"/>
+    <mergeCell ref="A1124:B1124"/>
+    <mergeCell ref="A1130:B1130"/>
+    <mergeCell ref="A1136:B1136"/>
+    <mergeCell ref="A1142:B1142"/>
+    <mergeCell ref="A1148:B1148"/>
+    <mergeCell ref="A1069:B1069"/>
+    <mergeCell ref="A1077:B1077"/>
+    <mergeCell ref="A1083:B1083"/>
+    <mergeCell ref="A1087:B1087"/>
+    <mergeCell ref="A1093:B1093"/>
+    <mergeCell ref="A999:B999"/>
+    <mergeCell ref="A1005:B1005"/>
+    <mergeCell ref="A1011:B1011"/>
+    <mergeCell ref="A1018:B1018"/>
+    <mergeCell ref="A1023:B1023"/>
+    <mergeCell ref="A1029:B1029"/>
+    <mergeCell ref="A1035:B1035"/>
+    <mergeCell ref="A1042:B1042"/>
+    <mergeCell ref="A1048:B1048"/>
+    <mergeCell ref="A261:B261"/>
+    <mergeCell ref="A267:B267"/>
+    <mergeCell ref="A273:B273"/>
     <mergeCell ref="A309:B309"/>
     <mergeCell ref="A315:B315"/>
     <mergeCell ref="A321:B321"/>
@@ -21077,6 +27575,24 @@
     <mergeCell ref="A291:B291"/>
     <mergeCell ref="A297:B297"/>
     <mergeCell ref="A303:B303"/>
+    <mergeCell ref="A237:B237"/>
+    <mergeCell ref="A243:B243"/>
+    <mergeCell ref="A249:B249"/>
+    <mergeCell ref="A255:B255"/>
+    <mergeCell ref="A231:B231"/>
+    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A107:B107"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A13:B13"/>
@@ -21101,27 +27617,127 @@
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A261:B261"/>
-    <mergeCell ref="A267:B267"/>
-    <mergeCell ref="A273:B273"/>
-    <mergeCell ref="A237:B237"/>
-    <mergeCell ref="A243:B243"/>
-    <mergeCell ref="A249:B249"/>
-    <mergeCell ref="A255:B255"/>
-    <mergeCell ref="A231:B231"/>
-    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="A388:B388"/>
+    <mergeCell ref="A339:B339"/>
+    <mergeCell ref="A345:B345"/>
+    <mergeCell ref="A351:B351"/>
+    <mergeCell ref="A357:B357"/>
+    <mergeCell ref="A364:B364"/>
+    <mergeCell ref="A420:B420"/>
+    <mergeCell ref="A427:B427"/>
+    <mergeCell ref="A432:B432"/>
+    <mergeCell ref="A370:B370"/>
+    <mergeCell ref="A376:B376"/>
+    <mergeCell ref="A382:B382"/>
+    <mergeCell ref="A438:B438"/>
+    <mergeCell ref="A444:B444"/>
+    <mergeCell ref="A394:B394"/>
+    <mergeCell ref="A400:B400"/>
+    <mergeCell ref="A406:B406"/>
+    <mergeCell ref="A412:B412"/>
+    <mergeCell ref="A413:B413"/>
+    <mergeCell ref="A484:B484"/>
+    <mergeCell ref="A490:B490"/>
+    <mergeCell ref="A496:B496"/>
+    <mergeCell ref="A497:B497"/>
+    <mergeCell ref="A503:B503"/>
+    <mergeCell ref="A450:B450"/>
+    <mergeCell ref="A456:B456"/>
+    <mergeCell ref="A462:B462"/>
+    <mergeCell ref="A468:B468"/>
+    <mergeCell ref="A478:B478"/>
+    <mergeCell ref="A557:B557"/>
+    <mergeCell ref="A561:B561"/>
+    <mergeCell ref="A564:B564"/>
+    <mergeCell ref="A570:B570"/>
+    <mergeCell ref="A539:B539"/>
+    <mergeCell ref="A545:B545"/>
+    <mergeCell ref="A551:B551"/>
+    <mergeCell ref="A509:B509"/>
+    <mergeCell ref="A515:B515"/>
+    <mergeCell ref="A521:B521"/>
+    <mergeCell ref="A527:B527"/>
+    <mergeCell ref="A533:B533"/>
+    <mergeCell ref="A601:B601"/>
+    <mergeCell ref="A606:B606"/>
+    <mergeCell ref="A612:B612"/>
+    <mergeCell ref="A618:B618"/>
+    <mergeCell ref="A624:B624"/>
+    <mergeCell ref="A574:B574"/>
+    <mergeCell ref="A580:B580"/>
+    <mergeCell ref="A584:B584"/>
+    <mergeCell ref="A590:B590"/>
+    <mergeCell ref="A595:B595"/>
+    <mergeCell ref="A660:B660"/>
+    <mergeCell ref="A666:B666"/>
+    <mergeCell ref="A671:B671"/>
+    <mergeCell ref="A677:B677"/>
+    <mergeCell ref="A683:B683"/>
+    <mergeCell ref="A630:B630"/>
+    <mergeCell ref="A636:B636"/>
+    <mergeCell ref="A642:B642"/>
+    <mergeCell ref="A648:B648"/>
+    <mergeCell ref="A654:B654"/>
+    <mergeCell ref="A708:B708"/>
+    <mergeCell ref="A714:B714"/>
+    <mergeCell ref="A716:A717"/>
+    <mergeCell ref="A710:A711"/>
+    <mergeCell ref="A712:A713"/>
+    <mergeCell ref="A689:B689"/>
+    <mergeCell ref="A695:B695"/>
+    <mergeCell ref="A701:B701"/>
+    <mergeCell ref="A702:B702"/>
+    <mergeCell ref="A764:B764"/>
+    <mergeCell ref="A740:B740"/>
+    <mergeCell ref="A741:B741"/>
+    <mergeCell ref="A747:B747"/>
+    <mergeCell ref="A758:B758"/>
+    <mergeCell ref="A757:B757"/>
+    <mergeCell ref="A718:A719"/>
+    <mergeCell ref="A720:B720"/>
+    <mergeCell ref="A726:B726"/>
+    <mergeCell ref="A732:B732"/>
+    <mergeCell ref="A739:B739"/>
+    <mergeCell ref="A827:B827"/>
+    <mergeCell ref="A833:B833"/>
+    <mergeCell ref="A839:B839"/>
+    <mergeCell ref="A845:B845"/>
+    <mergeCell ref="A851:B851"/>
+    <mergeCell ref="A857:B857"/>
+    <mergeCell ref="A863:B863"/>
+    <mergeCell ref="A869:B869"/>
+    <mergeCell ref="A771:B771"/>
+    <mergeCell ref="A777:B777"/>
+    <mergeCell ref="A782:B782"/>
+    <mergeCell ref="A788:B788"/>
+    <mergeCell ref="A799:B799"/>
+    <mergeCell ref="A805:B805"/>
+    <mergeCell ref="A811:B811"/>
+    <mergeCell ref="A817:B817"/>
+    <mergeCell ref="A1217:B1217"/>
+    <mergeCell ref="A1223:B1223"/>
+    <mergeCell ref="A923:B923"/>
+    <mergeCell ref="A929:B929"/>
+    <mergeCell ref="A935:B935"/>
+    <mergeCell ref="A941:B941"/>
+    <mergeCell ref="A881:B881"/>
+    <mergeCell ref="A887:B887"/>
+    <mergeCell ref="A893:B893"/>
+    <mergeCell ref="A899:B899"/>
+    <mergeCell ref="A905:B905"/>
+    <mergeCell ref="A911:B911"/>
+    <mergeCell ref="A917:B917"/>
+    <mergeCell ref="A947:B947"/>
+    <mergeCell ref="A953:B953"/>
+    <mergeCell ref="A959:B959"/>
+    <mergeCell ref="A965:B965"/>
+    <mergeCell ref="A971:B971"/>
+    <mergeCell ref="A977:B977"/>
+    <mergeCell ref="A983:B983"/>
+    <mergeCell ref="A989:B989"/>
+    <mergeCell ref="A1054:B1054"/>
+    <mergeCell ref="A1063:B1063"/>
+    <mergeCell ref="A1062:B1062"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
